--- a/100runs/run021/NotionalETEOutput021.xlsx
+++ b/100runs/run021/NotionalETEOutput021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,31 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_BRAVER_471.MISSILE_BRAVER_471</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_457.MISSILE_SOMERSAULT_457</t>
+    <t>MISSILE_BRAVER_345.MISSILE_BRAVER_345</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_184.MISSILE_BRAVER_184</t>
+    <t>MISSILE_BRAVER_477.MISSILE_BRAVER_477</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_29.MISSILE_HIGHWIND_29</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER_247.MISSILE_BRAVER_247</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -431,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,31 +471,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G2">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H2">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I2">
-        <v>-1293.559927597617</v>
+        <v>1114860.287608383</v>
       </c>
       <c r="J2">
-        <v>2541.575738122806</v>
+        <v>4843229.848542154</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.864774813</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G3">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H3">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I3">
-        <v>-1268.02161021655</v>
+        <v>1114889.901576429</v>
       </c>
       <c r="J3">
-        <v>2479.749889982824</v>
+        <v>4843181.196887881</v>
       </c>
       <c r="K3">
-        <v>281.3955063799797</v>
+        <v>3984672.660655744</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +541,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G4">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H4">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I4">
-        <v>-1241.854435264795</v>
+        <v>1114920.244761194</v>
       </c>
       <c r="J4">
-        <v>2417.924041842842</v>
+        <v>4843132.545233608</v>
       </c>
       <c r="K4">
-        <v>548.7593429411586</v>
+        <v>3984961.307881501</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G5">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H5">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I5">
-        <v>-1215.042917703212</v>
+        <v>1114951.335118969</v>
       </c>
       <c r="J5">
-        <v>2356.098193702859</v>
+        <v>4843083.893579336</v>
       </c>
       <c r="K5">
-        <v>802.0915096835386</v>
+        <v>3985234.806452084</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G6">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H6">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I6">
-        <v>-1187.57119118782</v>
+        <v>1114983.191048201</v>
       </c>
       <c r="J6">
-        <v>2294.272345562877</v>
+        <v>4843035.241925064</v>
       </c>
       <c r="K6">
-        <v>1041.392006607118</v>
+        <v>3985493.156367494</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +646,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G7">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H7">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I7">
-        <v>-1159.422998680511</v>
+        <v>1115015.831400384</v>
       </c>
       <c r="J7">
-        <v>2232.446497422895</v>
+        <v>4842986.590270792</v>
       </c>
       <c r="K7">
-        <v>1266.660833711899</v>
+        <v>3985736.357627731</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +681,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G8">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H8">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I8">
-        <v>-1130.581682828571</v>
+        <v>1115049.27549121</v>
       </c>
       <c r="J8">
-        <v>2170.620649282912</v>
+        <v>4842937.938616519</v>
       </c>
       <c r="K8">
-        <v>1477.897990997879</v>
+        <v>3985964.410232794</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,31 +716,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G9">
-        <v>-105.200050219143</v>
+        <v>4841125.181413654</v>
       </c>
       <c r="H9">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I9">
-        <v>-1101.030176107302</v>
+        <v>1115083.543112006</v>
       </c>
       <c r="J9">
-        <v>2108.79480114293</v>
+        <v>4842889.286962247</v>
       </c>
       <c r="K9">
-        <v>1675.10347846506</v>
+        <v>3986177.314182683</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,31 +751,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>242.8084001103737</v>
+        <v>1116577.445008946</v>
       </c>
       <c r="G10">
-        <v>-87.82856074136375</v>
+        <v>4841141.694234974</v>
       </c>
       <c r="H10">
-        <v>787.5103770081926</v>
+        <v>3985227.962145995</v>
       </c>
       <c r="I10">
-        <v>-1070.750990719909</v>
+        <v>1115118.654541438</v>
       </c>
       <c r="J10">
-        <v>2046.968953002948</v>
+        <v>4842840.635307974</v>
       </c>
       <c r="K10">
-        <v>1858.277296113441</v>
+        <v>3986375.069477399</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,31 +786,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>188.4476436537385</v>
+        <v>1116528.764491339</v>
       </c>
       <c r="G11">
-        <v>-70.45707126358448</v>
+        <v>4841158.207056291</v>
       </c>
       <c r="H11">
-        <v>970.2074852728108</v>
+        <v>3985427.21653446</v>
       </c>
       <c r="I11">
-        <v>-1039.726208248691</v>
+        <v>1115154.630557517</v>
       </c>
       <c r="J11">
-        <v>1985.143104862966</v>
+        <v>4842791.983653703</v>
       </c>
       <c r="K11">
-        <v>2027.419443943022</v>
+        <v>3986557.676116941</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,31 +821,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>156.513426265387</v>
+        <v>1116500.167129324</v>
       </c>
       <c r="G12">
-        <v>-53.08558178580525</v>
+        <v>4841174.719877611</v>
       </c>
       <c r="H12">
-        <v>1079.031226440052</v>
+        <v>3985545.902638486</v>
       </c>
       <c r="I12">
-        <v>-1007.937469051397</v>
+        <v>1115191.492449895</v>
       </c>
       <c r="J12">
-        <v>1923.317256722984</v>
+        <v>4842743.33199943</v>
       </c>
       <c r="K12">
-        <v>2182.529921953803</v>
+        <v>3986725.13410131</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,31 +856,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>136.3542054371369</v>
+        <v>1116482.114376411</v>
       </c>
       <c r="G13">
-        <v>-35.71409230802598</v>
+        <v>4841191.23269893</v>
       </c>
       <c r="H13">
-        <v>1156.800199136794</v>
+        <v>3985630.719575346</v>
       </c>
       <c r="I13">
-        <v>-975.3659613964716</v>
+        <v>1115229.262032461</v>
       </c>
       <c r="J13">
-        <v>1861.491408583002</v>
+        <v>4842694.680345157</v>
       </c>
       <c r="K13">
-        <v>2323.608730145786</v>
+        <v>3986877.443430505</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>122.2952466625967</v>
+        <v>1116469.52445981</v>
       </c>
       <c r="G14">
-        <v>-18.34260283024673</v>
+        <v>4841207.745520248</v>
       </c>
       <c r="H14">
-        <v>1217.358856510989</v>
+        <v>3985696.766478638</v>
       </c>
       <c r="I14">
-        <v>-941.9924103307821</v>
+        <v>1115267.96165625</v>
       </c>
       <c r="J14">
-        <v>1799.665560443019</v>
+        <v>4842646.028690885</v>
       </c>
       <c r="K14">
-        <v>2450.655868518968</v>
+        <v>3987014.604104527</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>111.8068423990113</v>
+        <v>1116460.132005001</v>
       </c>
       <c r="G15">
-        <v>-0.9711133524674833</v>
+        <v>4841224.258341568</v>
       </c>
       <c r="H15">
-        <v>1266.961094258093</v>
+        <v>3985750.8640155</v>
       </c>
       <c r="I15">
-        <v>-907.7970662732041</v>
+        <v>1115307.614222672</v>
       </c>
       <c r="J15">
-        <v>1737.839712303037</v>
+        <v>4842597.377036613</v>
       </c>
       <c r="K15">
-        <v>2563.67133707335</v>
+        <v>3987136.616123375</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>103.6063749271203</v>
+        <v>1116452.788416958</v>
       </c>
       <c r="G16">
-        <v>16.40037612531178</v>
+        <v>4841240.771162885</v>
       </c>
       <c r="H16">
-        <v>1308.970568842026</v>
+        <v>3985796.680680292</v>
       </c>
       <c r="I16">
-        <v>-872.7596933273479</v>
+        <v>1115348.243197062</v>
       </c>
       <c r="J16">
-        <v>1676.013864163055</v>
+        <v>4842548.72538234</v>
       </c>
       <c r="K16">
-        <v>2662.655135808932</v>
+        <v>3987243.47948705</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,31 +996,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>96.97159964674516</v>
+        <v>1116446.846919526</v>
       </c>
       <c r="G17">
-        <v>33.77186560309104</v>
+        <v>4841257.283984205</v>
       </c>
       <c r="H17">
-        <v>1345.406136978032</v>
+        <v>3985836.418292542</v>
       </c>
       <c r="I17">
-        <v>-836.8595573064919</v>
+        <v>1115389.872622569</v>
       </c>
       <c r="J17">
-        <v>1614.188016023073</v>
+        <v>4842500.073728068</v>
       </c>
       <c r="K17">
-        <v>2747.607264725715</v>
+        <v>3987335.194195551</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>91.46237206116167</v>
+        <v>1116441.913359584</v>
       </c>
       <c r="G18">
-        <v>51.14335508087028</v>
+        <v>4841273.796805524</v>
       </c>
       <c r="H18">
-        <v>1377.575138207902</v>
+        <v>3985871.502671974</v>
       </c>
       <c r="I18">
-        <v>-800.075413463642</v>
+        <v>1115432.52713438</v>
       </c>
       <c r="J18">
-        <v>1552.36216788309</v>
+        <v>4842451.422073795</v>
       </c>
       <c r="K18">
-        <v>2818.527723823698</v>
+        <v>3987411.760248879</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>86.79371620025134</v>
+        <v>1116437.732538737</v>
       </c>
       <c r="G19">
-        <v>68.51484455864956</v>
+        <v>4841290.309626842</v>
       </c>
       <c r="H19">
-        <v>1406.372867640685</v>
+        <v>3985902.910251556</v>
       </c>
       <c r="I19">
-        <v>-762.3854939194534</v>
+        <v>1115476.231974303</v>
       </c>
       <c r="J19">
-        <v>1490.536319743108</v>
+        <v>4842402.770419524</v>
       </c>
       <c r="K19">
-        <v>2875.416513102881</v>
+        <v>3987473.177647033</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>82.77212465185299</v>
+        <v>1116434.13116946</v>
       </c>
       <c r="G20">
-        <v>85.88633403642879</v>
+        <v>4841306.822448161</v>
       </c>
       <c r="H20">
-        <v>1432.439386505269</v>
+        <v>3985931.339099309</v>
       </c>
       <c r="I20">
-        <v>-723.7674947805795</v>
+        <v>1115521.013005702</v>
       </c>
       <c r="J20">
-        <v>1428.710471603126</v>
+        <v>4842354.118765251</v>
       </c>
       <c r="K20">
-        <v>2918.273632563265</v>
+        <v>3987519.446390014</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,31 +1136,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>79.26106742749091</v>
+        <v>1116430.986987993</v>
       </c>
       <c r="G21">
-        <v>103.257823514208</v>
+        <v>4841323.335269481</v>
       </c>
       <c r="H21">
-        <v>1456.248175156922</v>
+        <v>3985957.305605665</v>
       </c>
       <c r="I21">
-        <v>-684.1985629408186</v>
+        <v>1115566.896728802</v>
       </c>
       <c r="J21">
-        <v>1366.884623463144</v>
+        <v>4842305.467110978</v>
       </c>
       <c r="K21">
-        <v>2947.099082204848</v>
+        <v>3987550.566477821</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,31 +1171,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>76.1611357445783</v>
+        <v>1116428.210972928</v>
       </c>
       <c r="G22">
-        <v>120.6293129919873</v>
+        <v>4841339.848090799</v>
       </c>
       <c r="H22">
-        <v>1478.15935190564</v>
+        <v>3985981.202525354</v>
       </c>
       <c r="I22">
-        <v>-643.6552825572534</v>
+        <v>1115613.91029637</v>
       </c>
       <c r="J22">
-        <v>1305.058775323162</v>
+        <v>4842256.815456706</v>
       </c>
       <c r="K22">
-        <v>2961.892862027632</v>
+        <v>3987566.537910455</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,31 +1206,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>73.39802117528181</v>
+        <v>1116425.736580439</v>
       </c>
       <c r="G23">
-        <v>138.0008024697665</v>
+        <v>4841356.360912118</v>
       </c>
       <c r="H23">
-        <v>1498.453202117267</v>
+        <v>3986003.335545148</v>
       </c>
       <c r="I23">
-        <v>-602.1136611933766</v>
+        <v>1115662.081529788</v>
       </c>
       <c r="J23">
-        <v>1243.23292718318</v>
+        <v>4842208.163802435</v>
       </c>
       <c r="K23">
-        <v>2962.654972031617</v>
+        <v>3987567.360687915</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,31 +1241,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>70.91492635885</v>
+        <v>1116423.51294801</v>
       </c>
       <c r="G24">
-        <v>155.3722919475458</v>
+        <v>4841372.873733437</v>
       </c>
       <c r="H24">
-        <v>1517.35216016376</v>
+        <v>3986023.947257965</v>
       </c>
       <c r="I24">
-        <v>-559.5491156210056</v>
+        <v>1115711.438935512</v>
       </c>
       <c r="J24">
-        <v>1181.407079043197</v>
+        <v>4842159.512148161</v>
       </c>
       <c r="K24">
-        <v>2949.385412216801</v>
+        <v>3987553.034810201</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,31 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>68.66760031524299</v>
+        <v>1116421.500448513</v>
       </c>
       <c r="G25">
-        <v>172.7437814253251</v>
+        <v>4841389.386554755</v>
       </c>
       <c r="H25">
-        <v>1535.035710327096</v>
+        <v>3986043.233414201</v>
       </c>
       <c r="I25">
-        <v>-515.9364572725784</v>
+        <v>1115762.011721944</v>
       </c>
       <c r="J25">
-        <v>1119.581230903215</v>
+        <v>4842110.860493889</v>
       </c>
       <c r="K25">
-        <v>2922.084182583186</v>
+        <v>3987523.560277314</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,31 +1311,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>66.62099032846596</v>
+        <v>1116419.667691944</v>
       </c>
       <c r="G26">
-        <v>190.1152709031043</v>
+        <v>4841405.899376075</v>
       </c>
       <c r="H26">
-        <v>1551.65077897932</v>
+        <v>3986061.354255713</v>
       </c>
       <c r="I26">
-        <v>-471.2498773352314</v>
+        <v>1115813.829816715</v>
       </c>
       <c r="J26">
-        <v>1057.755382763233</v>
+        <v>4842062.208839617</v>
       </c>
       <c r="K26">
-        <v>2880.751283130771</v>
+        <v>3987478.937089254</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,31 +1346,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>64.746923697794</v>
+        <v>1116417.989449411</v>
       </c>
       <c r="G27">
-        <v>207.4867603808836</v>
+        <v>4841422.412197392</v>
       </c>
       <c r="H27">
-        <v>1567.319162138134</v>
+        <v>3986078.44261652</v>
       </c>
       <c r="I27">
-        <v>-425.4629314778271</v>
+        <v>1115866.923884399</v>
       </c>
       <c r="J27">
-        <v>995.9295346232506</v>
+        <v>4842013.557185343</v>
       </c>
       <c r="K27">
-        <v>2825.386713859556</v>
+        <v>3987419.16524602</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>63.02246512928405</v>
+        <v>1116416.445182164</v>
       </c>
       <c r="G28">
-        <v>224.8582498586628</v>
+        <v>4841438.925018712</v>
       </c>
       <c r="H28">
-        <v>1582.142948728912</v>
+        <v>3986094.609837556</v>
       </c>
       <c r="I28">
-        <v>-378.5485242019021</v>
+        <v>1115921.325344654</v>
       </c>
       <c r="J28">
-        <v>934.1036864832685</v>
+        <v>4841964.905531072</v>
       </c>
       <c r="K28">
-        <v>2755.990474769542</v>
+        <v>3987344.244747612</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,31 +1416,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>61.42872894419073</v>
+        <v>1116415.017977918</v>
       </c>
       <c r="G29">
-        <v>242.2297393364421</v>
+        <v>4841455.437840031</v>
       </c>
       <c r="H29">
-        <v>1596.208555473065</v>
+        <v>3986109.950167224</v>
       </c>
       <c r="I29">
-        <v>-330.4788928072702</v>
+        <v>1115977.066390819</v>
       </c>
       <c r="J29">
-        <v>872.2778383432862</v>
+        <v>4841916.2538768</v>
       </c>
       <c r="K29">
-        <v>2672.562565860728</v>
+        <v>3987254.175594032</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,31 +1451,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>59.95000451080126</v>
+        <v>1116413.69376767</v>
       </c>
       <c r="G30">
-        <v>259.6012288142213</v>
+        <v>4841471.950661349</v>
       </c>
       <c r="H30">
-        <v>1609.589779222342</v>
+        <v>3986124.544090359</v>
       </c>
       <c r="I30">
-        <v>-281.2255909627956</v>
+        <v>1116034.180008965</v>
       </c>
       <c r="J30">
-        <v>810.4519902033039</v>
+        <v>4841867.602222527</v>
       </c>
       <c r="K30">
-        <v>2575.102987133113</v>
+        <v>3987148.957785277</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>58.57310181120459</v>
+        <v>1116412.460739646</v>
       </c>
       <c r="G31">
-        <v>276.9727182920006</v>
+        <v>4841488.463482669</v>
       </c>
       <c r="H31">
-        <v>1622.350140573285</v>
+        <v>3986138.460884236</v>
       </c>
       <c r="I31">
-        <v>-230.7594718726079</v>
+        <v>1116092.699997415</v>
       </c>
       <c r="J31">
-        <v>748.6261420633218</v>
+        <v>4841818.950568254</v>
       </c>
       <c r="K31">
-        <v>2463.6117385867</v>
+        <v>3987028.591321349</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>57.28685456184957</v>
+        <v>1116411.308894345</v>
       </c>
       <c r="G32">
-        <v>294.3442077697799</v>
+        <v>4841504.976303987</v>
       </c>
       <c r="H32">
-        <v>1634.544707498284</v>
+        <v>3986151.760607468</v>
       </c>
       <c r="I32">
-        <v>-179.0506710278025</v>
+        <v>1116152.660986742</v>
       </c>
       <c r="J32">
-        <v>686.8002939233395</v>
+        <v>4841770.298913983</v>
       </c>
       <c r="K32">
-        <v>2338.088820221486</v>
+        <v>3986893.076202247</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,31 +1556,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>56.08173796363561</v>
+        <v>1116410.22970223</v>
       </c>
       <c r="G33">
-        <v>311.7156972475591</v>
+        <v>4841521.489125306</v>
       </c>
       <c r="H33">
-        <v>1646.22153157468</v>
+        <v>3986164.495666401</v>
       </c>
       <c r="I33">
-        <v>-126.068588533418</v>
+        <v>1116214.098460269</v>
       </c>
       <c r="J33">
-        <v>624.9744457833575</v>
+        <v>4841721.64725971</v>
       </c>
       <c r="K33">
-        <v>2198.534232037473</v>
+        <v>3986742.412427973</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,31 +1591,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>54.94957110141543</v>
+        <v>1116409.21583722</v>
       </c>
       <c r="G34">
-        <v>329.0871867253384</v>
+        <v>4841538.001946625</v>
       </c>
       <c r="H34">
-        <v>1657.422791557101</v>
+        <v>3986176.71206232</v>
       </c>
       <c r="I34">
-        <v>-71.78187100023128</v>
+        <v>1116277.04877506</v>
       </c>
       <c r="J34">
-        <v>563.1485976433752</v>
+        <v>4841672.995605438</v>
       </c>
       <c r="K34">
-        <v>2044.94797403466</v>
+        <v>3986576.599998523</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>53.8832827061</v>
+        <v>1116408.260966935</v>
       </c>
       <c r="G35">
-        <v>346.4586762031176</v>
+        <v>4841554.514767943</v>
       </c>
       <c r="H35">
-        <v>1668.185713060339</v>
+        <v>3986188.450394484</v>
       </c>
       <c r="I35">
-        <v>-16.15839299065447</v>
+        <v>1116341.54918344</v>
       </c>
       <c r="J35">
-        <v>501.3227495033929</v>
+        <v>4841624.343951165</v>
       </c>
       <c r="K35">
-        <v>1877.330046213047</v>
+        <v>3986395.638913902</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,31 +1661,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>52.87672493649463</v>
+        <v>1116407.359585931</v>
       </c>
       <c r="G36">
-        <v>363.8301656808969</v>
+        <v>4841571.027589262</v>
       </c>
       <c r="H36">
-        <v>1678.543314976629</v>
+        <v>3986199.746674186</v>
       </c>
       <c r="I36">
-        <v>40.83476199224689</v>
+        <v>1116407.637855036</v>
       </c>
       <c r="J36">
-        <v>439.4969013634108</v>
+        <v>4841575.692296893</v>
       </c>
       <c r="K36">
-        <v>1695.680448572635</v>
+        <v>3986199.529174106</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>51.92452396916767</v>
+        <v>1116406.506881904</v>
       </c>
       <c r="G37">
-        <v>381.2016551586761</v>
+        <v>4841587.540410582</v>
       </c>
       <c r="H37">
-        <v>1688.525020380391</v>
+        <v>3986210.632991025</v>
       </c>
       <c r="I37">
-        <v>99.23132098386094</v>
+        <v>1116475.35389937</v>
       </c>
       <c r="J37">
-        <v>377.6710532234285</v>
+        <v>4841527.040642621</v>
       </c>
       <c r="K37">
-        <v>1499.999181113423</v>
+        <v>3985988.270779137</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,31 +1731,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>51.02195909929592</v>
+        <v>1116405.698627422</v>
       </c>
       <c r="G38">
-        <v>398.5731446364554</v>
+        <v>4841604.0532319</v>
       </c>
       <c r="H38">
-        <v>1698.157160411797</v>
+        <v>3986221.138062451</v>
       </c>
       <c r="I38">
-        <v>159.0658415167948</v>
+        <v>1116544.737388998</v>
       </c>
       <c r="J38">
-        <v>315.8452050834465</v>
+        <v>4841478.388988349</v>
       </c>
       <c r="K38">
-        <v>1290.286243835412</v>
+        <v>3985761.863728994</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,31 +1766,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>50.16486414040679</v>
+        <v>1116404.931091631</v>
       </c>
       <c r="G39">
-        <v>415.9446341142346</v>
+        <v>4841620.566053219</v>
       </c>
       <c r="H39">
-        <v>1707.463392877796</v>
+        <v>3986231.287690304</v>
       </c>
       <c r="I39">
-        <v>220.3737320711021</v>
+        <v>1116615.829383227</v>
       </c>
       <c r="J39">
-        <v>254.0193569434642</v>
+        <v>4841429.737334075</v>
       </c>
       <c r="K39">
-        <v>1066.541636738599</v>
+        <v>3985520.308023678</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,31 +1801,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>49.34954642155026</v>
+        <v>1116404.200967711</v>
       </c>
       <c r="G40">
-        <v>433.3161235920139</v>
+        <v>4841637.078874538</v>
       </c>
       <c r="H40">
-        <v>1716.46505232593</v>
+        <v>3986241.10514262</v>
       </c>
       <c r="I40">
-        <v>283.1912730280847</v>
+        <v>1116688.67195241</v>
       </c>
       <c r="J40">
-        <v>192.1935088034818</v>
+        <v>4841381.085679804</v>
       </c>
       <c r="K40">
-        <v>828.7653598229879</v>
+        <v>3985263.603663188</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>48.57271978792068</v>
+        <v>1116403.505312884</v>
       </c>
       <c r="G41">
-        <v>450.6876130697931</v>
+        <v>4841653.591695856</v>
       </c>
       <c r="H41">
-        <v>1725.181444627158</v>
+        <v>3986250.611474899</v>
       </c>
       <c r="I41">
-        <v>347.5556381400539</v>
+        <v>1116763.308202845</v>
       </c>
       <c r="J41">
-        <v>130.3676606634998</v>
+        <v>4841332.434025532</v>
       </c>
       <c r="K41">
-        <v>576.9574130885771</v>
+        <v>3984991.750647525</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,31 +1871,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>47.8314488318595</v>
+        <v>1116402.841498468</v>
       </c>
       <c r="G42">
-        <v>468.0591025475724</v>
+        <v>4841670.104517176</v>
       </c>
       <c r="H42">
-        <v>1733.630096299338</v>
+        <v>3986259.825802034</v>
       </c>
       <c r="I42">
-        <v>413.5049165287767</v>
+        <v>1116839.782302283</v>
       </c>
       <c r="J42">
-        <v>68.54181252351751</v>
+        <v>4841283.782371259</v>
       </c>
       <c r="K42">
-        <v>311.1177965353658</v>
+        <v>3984704.748976688</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>47.1231021959003</v>
+        <v>1116402.207168059</v>
       </c>
       <c r="G43">
-        <v>485.4305920253517</v>
+        <v>4841686.617338494</v>
       </c>
       <c r="H43">
-        <v>1741.826966667536</v>
+        <v>3986268.765529697</v>
       </c>
       <c r="I43">
-        <v>481.0781352255976</v>
+        <v>1116918.139506065</v>
       </c>
       <c r="J43">
-        <v>6.715964383535186</v>
+        <v>4841235.130716986</v>
       </c>
       <c r="K43">
-        <v>31.24651016335492</v>
+        <v>3984402.598650678</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,31 +1941,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>46.44531325428342</v>
+        <v>1116401.600202324</v>
       </c>
       <c r="G44">
-        <v>502.8020815031309</v>
+        <v>4841703.130159813</v>
       </c>
       <c r="H44">
-        <v>1749.78662931645</v>
+        <v>3986277.446552229</v>
       </c>
       <c r="I44">
-        <v>550.3152822666059</v>
+        <v>1116998.426183903</v>
       </c>
       <c r="J44">
-        <v>-55.10988375644684</v>
+        <v>4841186.479062715</v>
       </c>
       <c r="K44">
-        <v>-262.6564460274549</v>
+        <v>3984085.299669494</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,31 +1976,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>45.79594683389767</v>
+        <v>1116401.018689197</v>
       </c>
       <c r="G45">
-        <v>520.1735709809101</v>
+        <v>4841719.642981132</v>
       </c>
       <c r="H45">
-        <v>1757.522428018788</v>
+        <v>3986285.88342271</v>
       </c>
       <c r="I45">
-        <v>621.257330356492</v>
+        <v>1117080.68984732</v>
       </c>
       <c r="J45">
-        <v>-116.9357318964292</v>
+        <v>4841137.827408442</v>
       </c>
       <c r="K45">
-        <v>-570.5910720370653</v>
+        <v>3983752.852033137</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,31 +2011,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>45.17307090832358</v>
+        <v>1116400.460898532</v>
       </c>
       <c r="G46">
-        <v>537.5450604586895</v>
+        <v>4841736.15580245</v>
       </c>
       <c r="H46">
-        <v>1765.046611330401</v>
+        <v>3986294.089499745</v>
       </c>
       <c r="I46">
-        <v>693.9462611151046</v>
+        <v>1117164.979177768</v>
       </c>
       <c r="J46">
-        <v>-178.7615800364115</v>
+        <v>4841089.175754169</v>
       </c>
       <c r="K46">
-        <v>-892.5573678654761</v>
+        <v>3983405.255741606</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,31 +2046,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>44.57493241010405</v>
+        <v>1116399.925260444</v>
       </c>
       <c r="G47">
-        <v>554.9165499364686</v>
+        <v>4841752.66862377</v>
       </c>
       <c r="H47">
-        <v>1772.370449261503</v>
+        <v>3986302.077074711</v>
       </c>
       <c r="I47">
-        <v>768.4250899210577</v>
+        <v>1117251.344055433</v>
       </c>
       <c r="J47">
-        <v>-240.5874281763938</v>
+        <v>4841040.524099897</v>
       </c>
       <c r="K47">
-        <v>-1228.555333512686</v>
+        <v>3983042.510794902</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,31 +2081,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>43.99993647152482</v>
+        <v>1116399.410346713</v>
       </c>
       <c r="G48">
-        <v>572.2880394142479</v>
+        <v>4841769.181445088</v>
       </c>
       <c r="H48">
-        <v>1779.504334814136</v>
+        <v>3986309.857482494</v>
       </c>
       <c r="I48">
-        <v>844.7378913670909</v>
+        <v>1117339.835588756</v>
       </c>
       <c r="J48">
-        <v>-302.4132763163755</v>
+        <v>4840991.872445624</v>
       </c>
       <c r="K48">
-        <v>-1578.584968978693</v>
+        <v>3982664.617193024</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,31 +2116,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>43.4466285341021</v>
+        <v>1116398.914854771</v>
       </c>
       <c r="G49">
-        <v>589.6595288920272</v>
+        <v>4841785.694266407</v>
       </c>
       <c r="H49">
-        <v>1786.457872682076</v>
+        <v>3986317.441198234</v>
       </c>
       <c r="I49">
-        <v>922.9298253422437</v>
+        <v>1117430.506144677</v>
       </c>
       <c r="J49">
-        <v>-364.2391244563578</v>
+        <v>4840943.220791353</v>
       </c>
       <c r="K49">
-        <v>-1942.646274263503</v>
+        <v>3982271.574935973</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,31 +2151,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>42.91367886983673</v>
+        <v>1116398.437593835</v>
       </c>
       <c r="G50">
-        <v>607.0310183698065</v>
+        <v>4841802.207087726</v>
       </c>
       <c r="H50">
-        <v>1793.239957012937</v>
+        <v>3986324.837922127</v>
       </c>
       <c r="I50">
-        <v>1003.047163756274</v>
+        <v>1117523.409379622</v>
       </c>
       <c r="J50">
-        <v>-426.0649725963402</v>
+        <v>4840894.56913708</v>
       </c>
       <c r="K50">
-        <v>-2320.739249367112</v>
+        <v>3981863.384023748</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>42.39986913925285</v>
+        <v>1116397.977472871</v>
       </c>
       <c r="G51">
-        <v>624.4025078475856</v>
+        <v>4841818.719909045</v>
       </c>
       <c r="H51">
-        <v>1799.858839812106</v>
+        <v>3986332.056654032</v>
       </c>
       <c r="I51">
-        <v>1085.137317922149</v>
+        <v>1117618.600271258</v>
       </c>
       <c r="J51">
-        <v>-487.8908207363225</v>
+        <v>4840845.917482807</v>
       </c>
       <c r="K51">
-        <v>-2712.863894289522</v>
+        <v>3981440.04445635</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>41.90408067693109</v>
+        <v>1116397.533490106</v>
       </c>
       <c r="G52">
-        <v>641.773997325365</v>
+        <v>4841835.232730363</v>
       </c>
       <c r="H52">
-        <v>1806.322191308254</v>
+        <v>3986339.105759308</v>
       </c>
       <c r="I52">
-        <v>1169.248866612804</v>
+        <v>1117716.135151026</v>
       </c>
       <c r="J52">
-        <v>-549.7166688763048</v>
+        <v>4840797.265828535</v>
       </c>
       <c r="K52">
-        <v>-3119.02020903073</v>
+        <v>3981001.556233777</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>41.42528424818951</v>
+        <v>1116397.104723851</v>
       </c>
       <c r="G53">
-        <v>659.1454868031442</v>
+        <v>4841851.745551683</v>
       </c>
       <c r="H53">
-        <v>1812.637153387981</v>
+        <v>3986345.993027089</v>
       </c>
       <c r="I53">
-        <v>1255.431584808758</v>
+        <v>1117816.071737478</v>
       </c>
       <c r="J53">
-        <v>-611.5425170162865</v>
+        <v>4840748.614174264</v>
       </c>
       <c r="K53">
-        <v>-3539.208193590736</v>
+        <v>3980547.919356032</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,31 +2291,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>40.96253106347456</v>
+        <v>1116396.690324456</v>
       </c>
       <c r="G54">
-        <v>676.5169762809234</v>
+        <v>4841868.258373002</v>
       </c>
       <c r="H54">
-        <v>1818.81038703313</v>
+        <v>3986352.72572202</v>
       </c>
       <c r="I54">
-        <v>1343.736473153641</v>
+        <v>1117918.469170432</v>
       </c>
       <c r="J54">
-        <v>-673.3683651562689</v>
+        <v>4840699.96251999</v>
       </c>
       <c r="K54">
-        <v>-3973.427847969544</v>
+        <v>3980079.133823114</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,34 +2323,34 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G55">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H55">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I55">
-        <v>-1577.859086853508</v>
+        <v>1114860.303615302</v>
       </c>
       <c r="J55">
-        <v>3076.812540007887</v>
+        <v>4843230.71935391</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.39289974</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,34 +2358,34 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G56">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H56">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I56">
-        <v>-1546.707947054749</v>
+        <v>1114889.917583774</v>
       </c>
       <c r="J56">
-        <v>3001.96663162106</v>
+        <v>4843182.06769089</v>
       </c>
       <c r="K56">
-        <v>443.9196357608132</v>
+        <v>3984668.188439704</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,34 +2393,34 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G57">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H57">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I57">
-        <v>-1514.789739096968</v>
+        <v>1114920.260768975</v>
       </c>
       <c r="J57">
-        <v>2927.120723234234</v>
+        <v>4843133.41602787</v>
       </c>
       <c r="K57">
-        <v>865.7034036280329</v>
+        <v>3984956.835341497</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,34 +2428,34 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G58">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H58">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I58">
-        <v>-1482.08557463244</v>
+        <v>1114951.351127196</v>
       </c>
       <c r="J58">
-        <v>2852.274814847407</v>
+        <v>4843084.76436485</v>
       </c>
       <c r="K58">
-        <v>1265.351303601662</v>
+        <v>3985230.333605118</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,34 +2463,34 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G59">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H59">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I59">
-        <v>-1448.576100205253</v>
+        <v>1114983.207056886</v>
       </c>
       <c r="J59">
-        <v>2777.428906460581</v>
+        <v>4843036.11270183</v>
       </c>
       <c r="K59">
-        <v>1642.863335681698</v>
+        <v>3985488.683230568</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,34 +2498,34 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G60">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H60">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I60">
-        <v>-1414.241485798447</v>
+        <v>1115015.847409537</v>
       </c>
       <c r="J60">
-        <v>2702.582998073754</v>
+        <v>4842987.461038811</v>
       </c>
       <c r="K60">
-        <v>1998.239499868145</v>
+        <v>3985731.884217846</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,34 +2533,34 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G61">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H61">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I61">
-        <v>-1379.06141309914</v>
+        <v>1115049.291500844</v>
       </c>
       <c r="J61">
-        <v>2627.737089686927</v>
+        <v>4842938.80937579</v>
       </c>
       <c r="K61">
-        <v>2331.479796160999</v>
+        <v>3985959.936566953</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,34 +2568,34 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G62">
-        <v>-178.5643367269932</v>
+        <v>4841128.141704247</v>
       </c>
       <c r="H62">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I62">
-        <v>-1343.015063474686</v>
+        <v>1115083.559122131</v>
       </c>
       <c r="J62">
-        <v>2552.891181300101</v>
+        <v>4842890.157712771</v>
       </c>
       <c r="K62">
-        <v>2642.584224560261</v>
+        <v>3986172.840277888</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,34 +2603,34 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>314.1476191061132</v>
+        <v>1116578.455219753</v>
       </c>
       <c r="G63">
-        <v>-149.0783384779625</v>
+        <v>4841144.654535663</v>
       </c>
       <c r="H63">
-        <v>1032.538350485328</v>
+        <v>3985231.293211414</v>
       </c>
       <c r="I63">
-        <v>-1306.081105652763</v>
+        <v>1115118.670552067</v>
       </c>
       <c r="J63">
-        <v>2478.045272913274</v>
+        <v>4842841.50604975</v>
       </c>
       <c r="K63">
-        <v>2931.552785065931</v>
+        <v>3986370.595350652</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,34 +2638,34 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>243.8151997750835</v>
+        <v>1116529.774658103</v>
       </c>
       <c r="G64">
-        <v>-119.5923402289318</v>
+        <v>4841161.167367079</v>
       </c>
       <c r="H64">
-        <v>1272.080299789732</v>
+        <v>3985430.547766426</v>
       </c>
       <c r="I64">
-        <v>-1268.237683098094</v>
+        <v>1115154.646568663</v>
       </c>
       <c r="J64">
-        <v>2403.199364526448</v>
+        <v>4842792.854386731</v>
       </c>
       <c r="K64">
-        <v>3198.385477678009</v>
+        <v>3986553.201785245</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,34 +2673,34 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>202.4984316731259</v>
+        <v>1116501.177270215</v>
       </c>
       <c r="G65">
-        <v>-90.10634197990106</v>
+        <v>4841177.680198496</v>
       </c>
       <c r="H65">
-        <v>1414.763735435808</v>
+        <v>3985549.233969656</v>
       </c>
       <c r="I65">
-        <v>-1229.462401078326</v>
+        <v>1115191.508461571</v>
       </c>
       <c r="J65">
-        <v>2328.353456139621</v>
+        <v>4842744.202723711</v>
       </c>
       <c r="K65">
-        <v>3443.082302396496</v>
+        <v>3986720.659581667</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,34 +2708,34 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>176.4162564957005</v>
+        <v>1116483.124500969</v>
       </c>
       <c r="G66">
-        <v>-60.62034373087034</v>
+        <v>4841194.193029912</v>
       </c>
       <c r="H66">
-        <v>1516.729943287311</v>
+        <v>3985634.050977411</v>
       </c>
       <c r="I66">
-        <v>-1189.732313411426</v>
+        <v>1115229.278044679</v>
       </c>
       <c r="J66">
-        <v>2253.507547752795</v>
+        <v>4842695.551060691</v>
       </c>
       <c r="K66">
-        <v>3665.643259221391</v>
+        <v>3986872.968739917</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,34 +2743,34 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>158.2266534007288</v>
+        <v>1116470.534572978</v>
       </c>
       <c r="G67">
-        <v>-31.13434548183961</v>
+        <v>4841210.705861328</v>
       </c>
       <c r="H67">
-        <v>1596.13097471284</v>
+        <v>3985700.097935908</v>
       </c>
       <c r="I67">
-        <v>-1149.02390888674</v>
+        <v>1115267.977669023</v>
       </c>
       <c r="J67">
-        <v>2178.661639365968</v>
+        <v>4842646.899397671</v>
       </c>
       <c r="K67">
-        <v>3866.068348152695</v>
+        <v>3987010.129259996</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,34 +2778,34 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>144.6566647754177</v>
+        <v>1116461.142109671</v>
       </c>
       <c r="G68">
-        <v>-1.648347232808912</v>
+        <v>4841227.218692744</v>
       </c>
       <c r="H68">
-        <v>1661.166578355741</v>
+        <v>3985754.195517987</v>
       </c>
       <c r="I68">
-        <v>-1107.313097351679</v>
+        <v>1115307.630236014</v>
       </c>
       <c r="J68">
-        <v>2103.815730979142</v>
+        <v>4842598.247734651</v>
       </c>
       <c r="K68">
-        <v>4044.357569190406</v>
+        <v>3987132.141141904</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,34 +2813,34 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>134.0468286631554</v>
+        <v>1116453.798514983</v>
       </c>
       <c r="G69">
-        <v>27.83765101622181</v>
+        <v>4841243.73152416</v>
       </c>
       <c r="H69">
-        <v>1716.246987272305</v>
+        <v>3985800.012221076</v>
       </c>
       <c r="I69">
-        <v>-1064.57519545581</v>
+        <v>1115348.259210988</v>
       </c>
       <c r="J69">
-        <v>2028.969822592315</v>
+        <v>4842549.596071631</v>
       </c>
       <c r="K69">
-        <v>4200.510922334526</v>
+        <v>3987239.00438564</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,34 +2848,34 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>125.4626987208367</v>
+        <v>1116447.857012176</v>
       </c>
       <c r="G70">
-        <v>57.32364926525254</v>
+        <v>4841260.244355577</v>
       </c>
       <c r="H70">
-        <v>1764.019210369952</v>
+        <v>3985839.74986654</v>
       </c>
       <c r="I70">
-        <v>-1020.784912043904</v>
+        <v>1115389.888637092</v>
       </c>
       <c r="J70">
-        <v>1954.123914205489</v>
+        <v>4842500.944408611</v>
       </c>
       <c r="K70">
-        <v>4334.528407585054</v>
+        <v>3987330.718991205</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,34 +2883,34 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>118.3348121718621</v>
+        <v>1116442.923447771</v>
       </c>
       <c r="G71">
-        <v>86.80964751428324</v>
+        <v>4841276.757186993</v>
       </c>
       <c r="H71">
-        <v>1806.197356127015</v>
+        <v>3985874.834275297</v>
       </c>
       <c r="I71">
-        <v>-975.9163331893014</v>
+        <v>1115432.543149516</v>
       </c>
       <c r="J71">
-        <v>1879.278005818662</v>
+        <v>4842452.292745591</v>
       </c>
       <c r="K71">
-        <v>4446.410024941991</v>
+        <v>3987407.284958598</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,34 +2918,34 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>112.2944646284325</v>
+        <v>1116438.742623141</v>
       </c>
       <c r="G72">
-        <v>116.295645763314</v>
+        <v>4841293.270018409</v>
       </c>
       <c r="H72">
-        <v>1843.955284040564</v>
+        <v>3985906.241881133</v>
       </c>
       <c r="I72">
-        <v>-929.94290685874</v>
+        <v>1115476.247990067</v>
       </c>
       <c r="J72">
-        <v>1804.432097431836</v>
+        <v>4842403.641082572</v>
       </c>
       <c r="K72">
-        <v>4536.155774405336</v>
+        <v>3987468.70228782</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,34 +2953,34 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>107.0912945182867</v>
+        <v>1116435.141250606</v>
       </c>
       <c r="G73">
-        <v>145.7816440123447</v>
+        <v>4841309.782849826</v>
       </c>
       <c r="H73">
-        <v>1878.132205611532</v>
+        <v>3985934.670752647</v>
       </c>
       <c r="I73">
-        <v>-882.837427199565</v>
+        <v>1115521.029022109</v>
       </c>
       <c r="J73">
-        <v>1729.586189045009</v>
+        <v>4842354.989419552</v>
       </c>
       <c r="K73">
-        <v>4603.765655975089</v>
+        <v>3987514.970978871</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,34 +2988,34 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>102.5486581553055</v>
+        <v>1116431.997066294</v>
       </c>
       <c r="G74">
-        <v>175.2676422613754</v>
+        <v>4841326.295681242</v>
       </c>
       <c r="H74">
-        <v>1909.348921072256</v>
+        <v>3985960.637280707</v>
       </c>
       <c r="I74">
-        <v>-834.57201844003</v>
+        <v>1115566.912745867</v>
       </c>
       <c r="J74">
-        <v>1654.740280658183</v>
+        <v>4842306.337756531</v>
       </c>
       <c r="K74">
-        <v>4649.23966965125</v>
+        <v>3987546.09103175</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,34 +3023,34 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>98.53793959229074</v>
+        <v>1116429.221048717</v>
       </c>
       <c r="G75">
-        <v>204.7536405104061</v>
+        <v>4841342.808512658</v>
       </c>
       <c r="H75">
-        <v>1938.077596855887</v>
+        <v>3985984.53422037</v>
       </c>
       <c r="I75">
-        <v>-785.1181183931528</v>
+        <v>1115613.92631411</v>
       </c>
       <c r="J75">
-        <v>1579.894372271356</v>
+        <v>4842257.686093512</v>
       </c>
       <c r="K75">
-        <v>4672.57781543382</v>
+        <v>3987562.062446458</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,34 +3058,34 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>94.9629979392535</v>
+        <v>1116426.74665399</v>
       </c>
       <c r="G76">
-        <v>234.2396387594368</v>
+        <v>4841359.321344074</v>
       </c>
       <c r="H76">
-        <v>1964.685727026967</v>
+        <v>3986006.667258664</v>
       </c>
       <c r="I76">
-        <v>-734.4464615543751</v>
+        <v>1115662.097548219</v>
       </c>
       <c r="J76">
-        <v>1505.04846388453</v>
+        <v>4842209.034430492</v>
       </c>
       <c r="K76">
-        <v>4673.780093322797</v>
+        <v>3987562.885222995</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,34 +3093,34 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>91.75034827704168</v>
+        <v>1116424.523019549</v>
       </c>
       <c r="G77">
-        <v>263.7256370084676</v>
+        <v>4841375.834175491</v>
       </c>
       <c r="H77">
-        <v>1989.46495475137</v>
+        <v>3986027.278988711</v>
       </c>
       <c r="I77">
-        <v>-682.5270617830123</v>
+        <v>1115711.454954652</v>
       </c>
       <c r="J77">
-        <v>1430.202555497703</v>
+        <v>4842160.382767471</v>
       </c>
       <c r="K77">
-        <v>4652.846503318184</v>
+        <v>3987548.55936136</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,34 +3128,34 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>88.84273830294944</v>
+        <v>1116422.510518231</v>
       </c>
       <c r="G78">
-        <v>293.2116352574983</v>
+        <v>4841392.347006907</v>
       </c>
       <c r="H78">
-        <v>2012.650609505207</v>
+        <v>3986046.565161066</v>
       </c>
       <c r="I78">
-        <v>-629.3291945572511</v>
+        <v>1115762.02774181</v>
       </c>
       <c r="J78">
-        <v>1355.356647110877</v>
+        <v>4842111.731104452</v>
       </c>
       <c r="K78">
-        <v>4609.777045419978</v>
+        <v>3987519.084861554</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,34 +3163,34 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>86.19481650826468</v>
+        <v>1116420.677760004</v>
       </c>
       <c r="G79">
-        <v>322.697633506529</v>
+        <v>4841408.859838323</v>
       </c>
       <c r="H79">
-        <v>2034.435332704085</v>
+        <v>3986064.686017724</v>
       </c>
       <c r="I79">
-        <v>-574.8213787921962</v>
+        <v>1115813.845837326</v>
       </c>
       <c r="J79">
-        <v>1280.51073872405</v>
+        <v>4842063.079441432</v>
       </c>
       <c r="K79">
-        <v>4544.57171962818</v>
+        <v>3987474.461723577</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,34 +3198,34 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>83.77013280784824</v>
+        <v>1116418.999515953</v>
       </c>
       <c r="G80">
-        <v>352.1836317555597</v>
+        <v>4841425.372669739</v>
       </c>
       <c r="H80">
-        <v>2054.978816287166</v>
+        <v>3986081.774392815</v>
       </c>
       <c r="I80">
-        <v>-518.971358210198</v>
+        <v>1115866.939905772</v>
       </c>
       <c r="J80">
-        <v>1205.664830337223</v>
+        <v>4842014.427778412</v>
       </c>
       <c r="K80">
-        <v>4457.230525942791</v>
+        <v>3987414.689947428</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,34 +3233,34 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>81.53901331899085</v>
+        <v>1116417.455247309</v>
       </c>
       <c r="G81">
-        <v>381.6696300045904</v>
+        <v>4841441.885501155</v>
       </c>
       <c r="H81">
-        <v>2074.414913386657</v>
+        <v>3986097.941627365</v>
       </c>
       <c r="I81">
-        <v>-461.746082252445</v>
+        <v>1115921.341366808</v>
       </c>
       <c r="J81">
-        <v>1130.818921950397</v>
+        <v>4841965.776115392</v>
       </c>
       <c r="K81">
-        <v>4347.753464363811</v>
+        <v>3987339.769533108</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,34 +3268,34 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>79.47702358633443</v>
+        <v>1116416.028041772</v>
       </c>
       <c r="G82">
-        <v>411.1556282536212</v>
+        <v>4841458.398332572</v>
       </c>
       <c r="H82">
-        <v>2092.856928641565</v>
+        <v>3986113.281969855</v>
       </c>
       <c r="I82">
-        <v>-403.1116865205203</v>
+        <v>1115977.082413774</v>
       </c>
       <c r="J82">
-        <v>1055.97301356357</v>
+        <v>4841917.124452372</v>
       </c>
       <c r="K82">
-        <v>4216.140534891238</v>
+        <v>3987249.700480617</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,34 +3303,34 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>77.56383705797637</v>
+        <v>1116414.703830325</v>
       </c>
       <c r="G83">
-        <v>440.6416265026518</v>
+        <v>4841474.911163988</v>
       </c>
       <c r="H83">
-        <v>2110.40162024302</v>
+        <v>3986127.875905188</v>
       </c>
       <c r="I83">
-        <v>-343.0334727363521</v>
+        <v>1116034.19603274</v>
       </c>
       <c r="J83">
-        <v>981.1271051767437</v>
+        <v>4841868.472789353</v>
       </c>
       <c r="K83">
-        <v>4062.391737525073</v>
+        <v>3987144.482789954</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,34 +3338,34 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>75.78238837406573</v>
+        <v>1116413.470801186</v>
       </c>
       <c r="G84">
-        <v>470.1276247516826</v>
+        <v>4841491.423995404</v>
       </c>
       <c r="H84">
-        <v>2127.132272746869</v>
+        <v>3986141.792710697</v>
       </c>
       <c r="I84">
-        <v>-281.4758882086921</v>
+        <v>1116092.71602203</v>
       </c>
       <c r="J84">
-        <v>906.2811967899174</v>
+        <v>4841819.821126332</v>
       </c>
       <c r="K84">
-        <v>3886.507072265318</v>
+        <v>3987024.11646112</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,34 +3373,34 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>74.11823049986127</v>
+        <v>1116412.318954843</v>
       </c>
       <c r="G85">
-        <v>499.6136230007133</v>
+        <v>4841507.93682682</v>
       </c>
       <c r="H85">
-        <v>2143.121088113921</v>
+        <v>3986155.092445047</v>
       </c>
       <c r="I85">
-        <v>-218.4025047939779</v>
+        <v>1116152.677012218</v>
       </c>
       <c r="J85">
-        <v>831.4352884030908</v>
+        <v>4841771.169463312</v>
       </c>
       <c r="K85">
-        <v>3688.48653911197</v>
+        <v>3986888.601494114</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,34 +3408,34 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>72.55904016747542</v>
+        <v>1116411.23976175</v>
       </c>
       <c r="G86">
-        <v>529.099621249744</v>
+        <v>4841524.449658236</v>
       </c>
       <c r="H86">
-        <v>2158.431068811005</v>
+        <v>3986167.827514624</v>
       </c>
       <c r="I86">
-        <v>-153.7759973391246</v>
+        <v>1116214.114486627</v>
       </c>
       <c r="J86">
-        <v>756.5893800162645</v>
+        <v>4841722.517800293</v>
       </c>
       <c r="K86">
-        <v>3468.330138065031</v>
+        <v>3986737.937888937</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,34 +3443,34 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>71.09423283776344</v>
+        <v>1116410.225895824</v>
       </c>
       <c r="G87">
-        <v>558.5856194987747</v>
+        <v>4841540.962489652</v>
       </c>
       <c r="H87">
-        <v>2173.117517197305</v>
+        <v>3986180.043920754</v>
       </c>
       <c r="I87">
-        <v>-87.55812159349226</v>
+        <v>1116277.064802322</v>
       </c>
       <c r="J87">
-        <v>681.7434716294379</v>
+        <v>4841673.866137273</v>
       </c>
       <c r="K87">
-        <v>3226.0378691245</v>
+        <v>3986572.125645589</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,34 +3478,34 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>69.71465964129845</v>
+        <v>1116409.271024675</v>
       </c>
       <c r="G88">
-        <v>588.0716177478055</v>
+        <v>4841557.475321068</v>
       </c>
       <c r="H88">
-        <v>2187.229241359692</v>
+        <v>3986191.782262729</v>
       </c>
       <c r="I88">
-        <v>-19.7096915769526</v>
+        <v>1116341.565211627</v>
       </c>
       <c r="J88">
-        <v>606.8975632426111</v>
+        <v>4841625.214474252</v>
       </c>
       <c r="K88">
-        <v>2961.609732290376</v>
+        <v>3986391.164764069</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,34 +3513,34 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>68.4123664476917</v>
+        <v>1116408.369642856</v>
       </c>
       <c r="G89">
-        <v>617.5576159968363</v>
+        <v>4841573.988152484</v>
       </c>
       <c r="H89">
-        <v>2200.809533772167</v>
+        <v>3986203.078551874</v>
       </c>
       <c r="I89">
-        <v>49.80944360933347</v>
+        <v>1116407.653884172</v>
       </c>
       <c r="J89">
-        <v>532.0516548557848</v>
+        <v>4841576.562811232</v>
       </c>
       <c r="K89">
-        <v>2675.045727562662</v>
+        <v>3986195.055244379</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,34 +3548,34 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>67.18040055746579</v>
+        <v>1116407.516938057</v>
       </c>
       <c r="G90">
-        <v>647.0436142458669</v>
+        <v>4841590.500983901</v>
       </c>
       <c r="H90">
-        <v>2213.896972279055</v>
+        <v>3986213.964877812</v>
       </c>
       <c r="I90">
-        <v>121.0404235431501</v>
+        <v>1116475.369929479</v>
       </c>
       <c r="J90">
-        <v>457.2057464689582</v>
+        <v>4841527.911148213</v>
       </c>
       <c r="K90">
-        <v>2366.345854941356</v>
+        <v>3985983.797086516</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,34 +3583,34 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>66.0126542816774</v>
+        <v>1116406.708682844</v>
       </c>
       <c r="G91">
-        <v>676.5296124948976</v>
+        <v>4841607.013815317</v>
       </c>
       <c r="H91">
-        <v>2226.526080758178</v>
+        <v>3986224.469958018</v>
       </c>
       <c r="I91">
-        <v>194.0254008265377</v>
+        <v>1116544.753420103</v>
       </c>
       <c r="J91">
-        <v>382.3598380821319</v>
+        <v>4841479.259485194</v>
       </c>
       <c r="K91">
-        <v>2035.510114426459</v>
+        <v>3985757.390290482</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,34 +3618,34 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>64.90373737204628</v>
+        <v>1116405.941146358</v>
       </c>
       <c r="G92">
-        <v>706.0156107439284</v>
+        <v>4841623.526646733</v>
       </c>
       <c r="H92">
-        <v>2238.727877966464</v>
+        <v>3986234.619594356</v>
       </c>
       <c r="I92">
-        <v>268.80756603058</v>
+        <v>1116615.845415352</v>
       </c>
       <c r="J92">
-        <v>307.5139296953053</v>
+        <v>4841430.607822172</v>
       </c>
       <c r="K92">
-        <v>1682.538506017968</v>
+        <v>3985515.834856277</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,34 +3653,34 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>63.8488722187922</v>
+        <v>1116405.211021778</v>
       </c>
       <c r="G93">
-        <v>735.5016089929591</v>
+        <v>4841640.03947815</v>
       </c>
       <c r="H93">
-        <v>2250.530336536621</v>
+        <v>3986244.437054877</v>
       </c>
       <c r="I93">
-        <v>345.4311732544421</v>
+        <v>1116688.687985581</v>
       </c>
       <c r="J93">
-        <v>232.6680213084786</v>
+        <v>4841381.956159153</v>
       </c>
       <c r="K93">
-        <v>1307.431029715886</v>
+        <v>3985259.130783901</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,34 +3688,34 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>62.84380716625688</v>
+        <v>1116404.515366322</v>
       </c>
       <c r="G94">
-        <v>764.9876072419897</v>
+        <v>4841656.552309566</v>
       </c>
       <c r="H94">
-        <v>2261.958769217197</v>
+        <v>3986253.943395101</v>
       </c>
       <c r="I94">
-        <v>423.9415663137645</v>
+        <v>1116763.324237088</v>
       </c>
       <c r="J94">
-        <v>157.8221129216523</v>
+        <v>4841333.304496134</v>
       </c>
       <c r="K94">
-        <v>910.1876855202133</v>
+        <v>3984987.278073353</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,34 +3723,34 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>61.88474435849044</v>
+        <v>1116403.851551305</v>
       </c>
       <c r="G95">
-        <v>794.4736054910204</v>
+        <v>4841673.065140982</v>
       </c>
       <c r="H95">
-        <v>2273.036155771211</v>
+        <v>3986263.157729939</v>
       </c>
       <c r="I95">
-        <v>504.3852055739372</v>
+        <v>1116839.798337624</v>
       </c>
       <c r="J95">
-        <v>82.9762045348256</v>
+        <v>4841284.652833113</v>
       </c>
       <c r="K95">
-        <v>490.8084734309477</v>
+        <v>3984700.276724634</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,34 +3758,34 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>60.96827932232508</v>
+        <v>1116403.217220322</v>
       </c>
       <c r="G96">
-        <v>823.9596037400513</v>
+        <v>4841689.577972399</v>
       </c>
       <c r="H96">
-        <v>2283.783421148558</v>
+        <v>3986272.097465074</v>
       </c>
       <c r="I96">
-        <v>586.8096954440999</v>
+        <v>1116918.155542531</v>
       </c>
       <c r="J96">
-        <v>8.130296147998935</v>
+        <v>4841236.001170093</v>
       </c>
       <c r="K96">
-        <v>49.29339344809072</v>
+        <v>3984398.126737744</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,34 +3793,34 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>60.09135009677685</v>
+        <v>1116402.610254037</v>
       </c>
       <c r="G97">
-        <v>853.445601989082</v>
+        <v>4841706.090803814</v>
       </c>
       <c r="H97">
-        <v>2294.219673395992</v>
+        <v>3986280.778494862</v>
       </c>
       <c r="I97">
-        <v>671.2638125481744</v>
+        <v>1116998.442221522</v>
       </c>
       <c r="J97">
-        <v>-66.71561223882738</v>
+        <v>4841187.349507073</v>
       </c>
       <c r="K97">
-        <v>-414.3575544283567</v>
+        <v>3984080.828112682</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,34 +3828,34 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>59.2511941763107</v>
+        <v>1116402.028740384</v>
       </c>
       <c r="G98">
-        <v>882.9316002381125</v>
+        <v>4841722.603635231</v>
       </c>
       <c r="H98">
-        <v>2304.362408101462</v>
+        <v>3986289.215372395</v>
       </c>
       <c r="I98">
-        <v>757.7975345895742</v>
+        <v>1117080.70588612</v>
       </c>
       <c r="J98">
-        <v>-141.561520625654</v>
+        <v>4841138.697844054</v>
       </c>
       <c r="K98">
-        <v>-900.1443701983972</v>
+        <v>3983748.380849449</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,34 +3863,34 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>58.44531188834756</v>
+        <v>1116401.470949215</v>
       </c>
       <c r="G99">
-        <v>912.4175984871434</v>
+        <v>4841739.116466647</v>
       </c>
       <c r="H99">
-        <v>2314.227684867512</v>
+        <v>3986297.421456289</v>
       </c>
       <c r="I99">
-        <v>846.4620699266795</v>
+        <v>1117164.995217778</v>
       </c>
       <c r="J99">
-        <v>-216.4074290124807</v>
+        <v>4841090.046181033</v>
       </c>
       <c r="K99">
-        <v>-1408.067053862031</v>
+        <v>3983400.784948044</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,34 +3898,34 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>57.67143509896979</v>
+        <v>1116400.935310642</v>
       </c>
       <c r="G100">
-        <v>941.9035967361741</v>
+        <v>4841755.629298063</v>
       </c>
       <c r="H100">
-        <v>2323.830280283881</v>
+        <v>3986305.409037931</v>
       </c>
       <c r="I100">
-        <v>937.3098878765841</v>
+        <v>1117251.360096683</v>
       </c>
       <c r="J100">
-        <v>-291.2533373993073</v>
+        <v>4841041.394518013</v>
       </c>
       <c r="K100">
-        <v>-1938.125605419255</v>
+        <v>3983038.040408469</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,34 +3933,34 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>56.92750035446243</v>
+        <v>1116400.420396445</v>
       </c>
       <c r="G101">
-        <v>971.3895949852048</v>
+        <v>4841772.14212948</v>
       </c>
       <c r="H101">
-        <v>2333.183821057592</v>
+        <v>3986313.189452218</v>
       </c>
       <c r="I101">
-        <v>1030.394749765044</v>
+        <v>1117339.851631277</v>
       </c>
       <c r="J101">
-        <v>-366.0992457861333</v>
+        <v>4840992.742854994</v>
       </c>
       <c r="K101">
-        <v>-2490.320024870067</v>
+        <v>3982660.147230722</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,34 +3968,34 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>56.21162573441284</v>
+        <v>1116399.924904055</v>
       </c>
       <c r="G102">
-        <v>1000.875593234236</v>
+        <v>4841788.654960896</v>
       </c>
       <c r="H102">
-        <v>2342.300900311172</v>
+        <v>3986320.773174296</v>
       </c>
       <c r="I102">
-        <v>1125.771740741007</v>
+        <v>1117430.522188499</v>
       </c>
       <c r="J102">
-        <v>-440.94515417296</v>
+        <v>4840944.091191974</v>
       </c>
       <c r="K102">
-        <v>-3064.650312214474</v>
+        <v>3982267.105414803</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,34 +4003,34 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>55.52209082517469</v>
+        <v>1116399.447642687</v>
       </c>
       <c r="G103">
-        <v>1030.361591483266</v>
+        <v>4841805.167792312</v>
       </c>
       <c r="H103">
-        <v>2351.193179539851</v>
+        <v>3986328.169904372</v>
       </c>
       <c r="I103">
-        <v>1223.497302374528</v>
+        <v>1117523.425424778</v>
       </c>
       <c r="J103">
-        <v>-515.7910625597866</v>
+        <v>4840895.439528953</v>
       </c>
       <c r="K103">
-        <v>-3661.116467452474</v>
+        <v>3981858.914960713</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,34 +4038,34 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>54.85731932854151</v>
+        <v>1116398.987521307</v>
       </c>
       <c r="G104">
-        <v>1059.847589732297</v>
+        <v>4841821.680623729</v>
       </c>
       <c r="H104">
-        <v>2359.871478298876</v>
+        <v>3986335.388642311</v>
       </c>
       <c r="I104">
-        <v>1323.629266057407</v>
+        <v>1117618.616317781</v>
       </c>
       <c r="J104">
-        <v>-590.6369709466132</v>
+        <v>4840846.787865934</v>
       </c>
       <c r="K104">
-        <v>-4279.718490584066</v>
+        <v>3981435.575868452</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,34 +4073,34 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>54.21586390546776</v>
+        <v>1116398.54353814</v>
       </c>
       <c r="G105">
-        <v>1089.333587981328</v>
+        <v>4841838.193455144</v>
       </c>
       <c r="H105">
-        <v>2368.345853351296</v>
+        <v>3986342.437753479</v>
       </c>
       <c r="I105">
-        <v>1426.226887226261</v>
+        <v>1117716.15119895</v>
       </c>
       <c r="J105">
-        <v>-665.48287933344</v>
+        <v>4840798.136202914</v>
       </c>
       <c r="K105">
-        <v>-4920.456381609248</v>
+        <v>3980997.088138019</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,34 +4108,34 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>53.59639292317348</v>
+        <v>1116398.114771497</v>
       </c>
       <c r="G106">
-        <v>1118.819586230358</v>
+        <v>4841854.706286561</v>
       </c>
       <c r="H106">
-        <v>2376.625668728396</v>
+        <v>3986349.325027016</v>
       </c>
       <c r="I106">
-        <v>1531.350880428315</v>
+        <v>1117816.087786837</v>
       </c>
       <c r="J106">
-        <v>-740.328787720266</v>
+        <v>4840749.484539894</v>
       </c>
       <c r="K106">
-        <v>-5583.330140528018</v>
+        <v>3980543.451769415</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,34 +4143,34 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>52.99767882948523</v>
+        <v>1116397.700371728</v>
       </c>
       <c r="G107">
-        <v>1148.305584479389</v>
+        <v>4841871.219117978</v>
       </c>
       <c r="H107">
-        <v>2384.719657926784</v>
+        <v>3986356.057727576</v>
       </c>
       <c r="I107">
-        <v>1639.06345525067</v>
+        <v>1117918.485221261</v>
       </c>
       <c r="J107">
-        <v>-815.1746961070926</v>
+        <v>4840700.832876874</v>
       </c>
       <c r="K107">
-        <v>-6268.339767340384</v>
+        <v>3980074.66676264</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4187,34 +4178,34 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G108">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H108">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I108">
-        <v>-1983.686749404098</v>
+        <v>1114862.115982771</v>
       </c>
       <c r="J108">
-        <v>1282.31565665328</v>
+        <v>4843224.863275975</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984362.601536574</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4222,34 +4213,34 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G109">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H109">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I109">
-        <v>-1944.523490934129</v>
+        <v>1114891.729999384</v>
       </c>
       <c r="J109">
-        <v>1251.122309995697</v>
+        <v>4843176.211671782</v>
       </c>
       <c r="K109">
-        <v>353.103587358545</v>
+        <v>3984666.396939951</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4257,34 +4248,34 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G110">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H110">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I110">
-        <v>-1904.395873253874</v>
+        <v>1114922.073233912</v>
       </c>
       <c r="J110">
-        <v>1219.928963338114</v>
+        <v>4843127.560067587</v>
       </c>
       <c r="K110">
-        <v>688.599811282655</v>
+        <v>3984955.043711969</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4292,34 +4283,34 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G111">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H111">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I111">
-        <v>-1863.280149904974</v>
+        <v>1114953.163642676</v>
       </c>
       <c r="J111">
-        <v>1188.735616680531</v>
+        <v>4843078.908463393</v>
       </c>
       <c r="K111">
-        <v>1006.488671772332</v>
+        <v>3985228.541852626</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4327,34 +4318,34 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G112">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H112">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I112">
-        <v>-1821.15198969438</v>
+        <v>1114985.019624152</v>
       </c>
       <c r="J112">
-        <v>1157.542270022948</v>
+        <v>4843030.256859199</v>
       </c>
       <c r="K112">
-        <v>1306.770168827575</v>
+        <v>3985486.891361922</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4362,34 +4353,34 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G113">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H113">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I113">
-        <v>-1777.986462295796</v>
+        <v>1115017.660029865</v>
       </c>
       <c r="J113">
-        <v>1126.348923365365</v>
+        <v>4842981.605255006</v>
       </c>
       <c r="K113">
-        <v>1589.444302448385</v>
+        <v>3985730.092239858</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4397,34 +4388,34 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G114">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H114">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I114">
-        <v>-1733.758023496579</v>
+        <v>1115051.10417554</v>
       </c>
       <c r="J114">
-        <v>1095.155576707782</v>
+        <v>4842932.953650812</v>
       </c>
       <c r="K114">
-        <v>1854.511072634761</v>
+        <v>3985958.144486432</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4432,34 +4423,34 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G115">
-        <v>-140.0315975844252</v>
+        <v>4841118.888001269</v>
       </c>
       <c r="H115">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I115">
-        <v>-1688.440500081349</v>
+        <v>1115085.371852534</v>
       </c>
       <c r="J115">
-        <v>1063.962230050199</v>
+        <v>4842884.302046617</v>
       </c>
       <c r="K115">
-        <v>2101.970479386704</v>
+        <v>3986171.048101647</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4467,34 +4458,34 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>241.3617297876295</v>
+        <v>1116577.999721922</v>
       </c>
       <c r="G116">
-        <v>-116.9084391930824</v>
+        <v>4841135.400801121</v>
       </c>
       <c r="H116">
-        <v>1328.007607620027</v>
+        <v>3985227.736186337</v>
       </c>
       <c r="I116">
-        <v>-1642.007074343377</v>
+        <v>1115120.483339549</v>
       </c>
       <c r="J116">
-        <v>1032.768883392616</v>
+        <v>4842835.650442424</v>
       </c>
       <c r="K116">
-        <v>2331.822522704211</v>
+        <v>3986368.803085501</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4502,34 +4493,34 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>187.3248587198522</v>
+        <v>1116529.319180131</v>
       </c>
       <c r="G117">
-        <v>-93.78528080173955</v>
+        <v>4841151.913600974</v>
       </c>
       <c r="H117">
-        <v>1636.096436350558</v>
+        <v>3985426.990563504</v>
       </c>
       <c r="I117">
-        <v>-1594.430268214575</v>
+        <v>1115156.459414629</v>
       </c>
       <c r="J117">
-        <v>1001.575536735033</v>
+        <v>4842786.99883823</v>
       </c>
       <c r="K117">
-        <v>2544.067202587285</v>
+        <v>3986551.409437994</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4537,34 +4528,34 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>155.5809077496098</v>
+        <v>1116500.721803909</v>
       </c>
       <c r="G118">
-        <v>-70.66212241039676</v>
+        <v>4841168.426400826</v>
       </c>
       <c r="H118">
-        <v>1819.609899003337</v>
+        <v>3985545.6766608</v>
       </c>
       <c r="I118">
-        <v>-1545.68192700471</v>
+        <v>1115193.321367461</v>
       </c>
       <c r="J118">
-        <v>970.3821900774495</v>
+        <v>4842738.347234036</v>
       </c>
       <c r="K118">
-        <v>2738.704519035926</v>
+        <v>3986718.867159127</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4572,34 +4563,34 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>135.5417970431208</v>
+        <v>1116482.669042028</v>
       </c>
       <c r="G119">
-        <v>-47.53896401905396</v>
+        <v>4841184.939200679</v>
       </c>
       <c r="H119">
-        <v>1950.754567560502</v>
+        <v>3985630.493592851</v>
       </c>
       <c r="I119">
-        <v>-1495.733202740203</v>
+        <v>1115231.091011969</v>
       </c>
       <c r="J119">
-        <v>939.1888434198664</v>
+        <v>4842689.695629842</v>
       </c>
       <c r="K119">
-        <v>2915.734472050134</v>
+        <v>3986871.176248899</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4607,34 +4598,34 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>121.5666025799412</v>
+        <v>1116470.079119172</v>
       </c>
       <c r="G120">
-        <v>-24.41580562771115</v>
+        <v>4841201.45200053</v>
       </c>
       <c r="H120">
-        <v>2052.876850705159</v>
+        <v>3985696.540492399</v>
       </c>
       <c r="I120">
-        <v>-1444.554537092667</v>
+        <v>1115269.790699225</v>
       </c>
       <c r="J120">
-        <v>907.9954967622832</v>
+        <v>4842641.044025648</v>
       </c>
       <c r="K120">
-        <v>3075.157061629908</v>
+        <v>3987008.336707311</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4642,34 +4633,34 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>111.1406890010857</v>
+        <v>1116460.686659697</v>
       </c>
       <c r="G121">
-        <v>-1.292647236368367</v>
+        <v>4841217.964800383</v>
       </c>
       <c r="H121">
-        <v>2136.522921926956</v>
+        <v>3985750.638026193</v>
       </c>
       <c r="I121">
-        <v>-1392.11564388707</v>
+        <v>1115309.443330677</v>
       </c>
       <c r="J121">
-        <v>876.8021501047003</v>
+        <v>4842592.392421454</v>
       </c>
       <c r="K121">
-        <v>3216.972287775247</v>
+        <v>3987130.348534362</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4677,34 +4668,34 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>102.9890805180882</v>
+        <v>1116453.343068005</v>
       </c>
       <c r="G122">
-        <v>21.83051115497444</v>
+        <v>4841234.477600235</v>
       </c>
       <c r="H122">
-        <v>2207.365038384556</v>
+        <v>3985796.454688387</v>
       </c>
       <c r="I122">
-        <v>-1338.385491179182</v>
+        <v>1115350.0723717</v>
       </c>
       <c r="J122">
-        <v>845.6088034471171</v>
+        <v>4842543.74081726</v>
       </c>
       <c r="K122">
-        <v>3341.180150486153</v>
+        <v>3987237.211730053</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4712,34 +4703,34 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>96.39383571726738</v>
+        <v>1116447.401567622</v>
       </c>
       <c r="G123">
-        <v>44.95366954631724</v>
+        <v>4841250.990400088</v>
       </c>
       <c r="H123">
-        <v>2268.807672139299</v>
+        <v>3985836.192298384</v>
       </c>
       <c r="I123">
-        <v>-1283.332282891696</v>
+        <v>1115391.701865479</v>
       </c>
       <c r="J123">
-        <v>814.4154567895341</v>
+        <v>4842495.089213067</v>
       </c>
       <c r="K123">
-        <v>3447.780649762625</v>
+        <v>3987328.926294383</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4747,34 +4738,34 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>90.91743251521297</v>
+        <v>1116442.468005229</v>
       </c>
       <c r="G124">
-        <v>68.07682793766003</v>
+        <v>4841267.503199941</v>
       </c>
       <c r="H124">
-        <v>2323.055437768883</v>
+        <v>3985871.276675827</v>
       </c>
       <c r="I124">
-        <v>-1226.923439998154</v>
+        <v>1115434.356447243</v>
       </c>
       <c r="J124">
-        <v>783.222110131951</v>
+        <v>4842446.437608873</v>
       </c>
       <c r="K124">
-        <v>3536.773785604664</v>
+        <v>3987405.492227352</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4782,34 +4773,34 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>86.27659284961555</v>
+        <v>1116438.287182305</v>
       </c>
       <c r="G125">
-        <v>91.19998632900285</v>
+        <v>4841284.015999792</v>
       </c>
       <c r="H125">
-        <v>2371.618104224413</v>
+        <v>3985902.684253629</v>
       </c>
       <c r="I125">
-        <v>-1169.125581243542</v>
+        <v>1115478.061358843</v>
       </c>
       <c r="J125">
-        <v>752.0287634743679</v>
+        <v>4842397.786004679</v>
       </c>
       <c r="K125">
-        <v>3608.159558012269</v>
+        <v>3987466.909528961</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4817,34 +4808,34 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>82.27896223972107</v>
+        <v>1116434.685811239</v>
       </c>
       <c r="G126">
-        <v>114.3231447203456</v>
+        <v>4841300.528799645</v>
       </c>
       <c r="H126">
-        <v>2415.575030211661</v>
+        <v>3985931.11309977</v>
       </c>
       <c r="I126">
-        <v>-1109.904503390153</v>
+        <v>1115522.842463683</v>
       </c>
       <c r="J126">
-        <v>720.8354168167849</v>
+        <v>4842349.134400484</v>
       </c>
       <c r="K126">
-        <v>3661.93796698544</v>
+        <v>3987513.17819921</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4852,34 +4843,34 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>78.78882415277612</v>
+        <v>1116431.541628209</v>
       </c>
       <c r="G127">
-        <v>137.4463031116884</v>
+        <v>4841317.041599497</v>
       </c>
       <c r="H127">
-        <v>2455.724663004733</v>
+        <v>3985957.079604653</v>
       </c>
       <c r="I127">
-        <v>-1049.225160977016</v>
+        <v>1115568.726262031</v>
       </c>
       <c r="J127">
-        <v>689.6420701592018</v>
+        <v>4842300.482796291</v>
       </c>
       <c r="K127">
-        <v>3698.109012524177</v>
+        <v>3987544.298238098</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4887,34 +4878,34 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>75.70736209103875</v>
+        <v>1116428.765611765</v>
       </c>
       <c r="G128">
-        <v>160.5694615030312</v>
+        <v>4841333.554399349</v>
       </c>
       <c r="H128">
-        <v>2492.674283306564</v>
+        <v>3985980.976522987</v>
       </c>
       <c r="I128">
-        <v>-987.0516455809278</v>
+        <v>1115615.739906702</v>
       </c>
       <c r="J128">
-        <v>658.4487235016188</v>
+        <v>4842251.831192097</v>
       </c>
       <c r="K128">
-        <v>3716.672694628481</v>
+        <v>3987560.269645625</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4922,34 +4913,34 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>72.96071036175901</v>
+        <v>1116426.291218047</v>
       </c>
       <c r="G129">
-        <v>183.692619894374</v>
+        <v>4841350.067199201</v>
       </c>
       <c r="H129">
-        <v>2526.896546600832</v>
+        <v>3986003.109541526</v>
       </c>
       <c r="I129">
-        <v>-923.3471645667959</v>
+        <v>1115663.911219121</v>
       </c>
       <c r="J129">
-        <v>627.2553768440356</v>
+        <v>4842203.179587903</v>
       </c>
       <c r="K129">
-        <v>3717.629013298351</v>
+        <v>3987561.092421792</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4957,34 +4948,34 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>70.49241000704211</v>
+        <v>1116424.067584513</v>
       </c>
       <c r="G130">
-        <v>206.8157782857169</v>
+        <v>4841366.579999055</v>
       </c>
       <c r="H130">
-        <v>2558.766552120229</v>
+        <v>3986023.721253175</v>
       </c>
       <c r="I130">
-        <v>-858.0740193147392</v>
+        <v>1115713.268705791</v>
       </c>
       <c r="J130">
-        <v>596.0620301864525</v>
+        <v>4842154.527983709</v>
       </c>
       <c r="K130">
-        <v>3700.977968533787</v>
+        <v>3987546.766566598</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4992,34 +4983,34 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>68.25847369744488</v>
+        <v>1116422.055084016</v>
       </c>
       <c r="G131">
-        <v>229.9389366770596</v>
+        <v>4841383.092798906</v>
       </c>
       <c r="H131">
-        <v>2588.586970786784</v>
+        <v>3986043.007408317</v>
       </c>
       <c r="I131">
-        <v>-791.1935829110424</v>
+        <v>1115763.841575162</v>
       </c>
       <c r="J131">
-        <v>564.8686835288695</v>
+        <v>4842105.876379515</v>
       </c>
       <c r="K131">
-        <v>3666.71956033479</v>
+        <v>3987517.292080043</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5027,34 +5018,34 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>66.22405756363487</v>
+        <v>1116420.222326537</v>
       </c>
       <c r="G132">
-        <v>253.0620950684025</v>
+        <v>4841399.605598759</v>
       </c>
       <c r="H132">
-        <v>2616.605569925895</v>
+        <v>3986061.128248801</v>
       </c>
       <c r="I132">
-        <v>-722.6662772897782</v>
+        <v>1115815.659754916</v>
       </c>
       <c r="J132">
-        <v>533.6753368712864</v>
+        <v>4842057.224775322</v>
       </c>
       <c r="K132">
-        <v>3614.853788701359</v>
+        <v>3987472.668962128</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5062,34 +5053,34 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>64.36115675991208</v>
+        <v>1116418.54408317</v>
       </c>
       <c r="G133">
-        <v>276.1852534597452</v>
+        <v>4841416.118398611</v>
       </c>
       <c r="H133">
-        <v>2643.027738625512</v>
+        <v>3986078.21660864</v>
       </c>
       <c r="I133">
-        <v>-652.4515498115558</v>
+        <v>1115868.753909674</v>
       </c>
       <c r="J133">
-        <v>502.4819902137032</v>
+        <v>4842008.573171127</v>
       </c>
       <c r="K133">
-        <v>3545.380653633494</v>
+        <v>3987412.897212853</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5097,34 +5088,34 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>62.64697264250321</v>
+        <v>1116416.999815156</v>
       </c>
       <c r="G134">
-        <v>299.3084118510881</v>
+        <v>4841432.631198463</v>
       </c>
       <c r="H134">
-        <v>2668.025633181617</v>
+        <v>3986094.383828759</v>
       </c>
       <c r="I134">
-        <v>-580.5078492655471</v>
+        <v>1115923.155459148</v>
       </c>
       <c r="J134">
-        <v>471.2886435561202</v>
+        <v>4841959.921566933</v>
       </c>
       <c r="K134">
-        <v>3458.300155131195</v>
+        <v>3987337.976832217</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5132,34 +5123,34 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>61.06273205492715</v>
+        <v>1116415.572610201</v>
       </c>
       <c r="G135">
-        <v>322.4315702424309</v>
+        <v>4841449.143998316</v>
       </c>
       <c r="H135">
-        <v>2691.744981278325</v>
+        <v>3986109.724157557</v>
       </c>
       <c r="I135">
-        <v>-506.792601280583</v>
+        <v>1115978.896596729</v>
       </c>
       <c r="J135">
-        <v>440.0952968985371</v>
+        <v>4841911.269962739</v>
       </c>
       <c r="K135">
-        <v>3353.612293194462</v>
+        <v>3987247.907820221</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5167,34 +5158,34 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>59.59281797057145</v>
+        <v>1116414.248399295</v>
       </c>
       <c r="G136">
-        <v>345.5547286337736</v>
+        <v>4841465.656798167</v>
       </c>
       <c r="H136">
-        <v>2714.310229251078</v>
+        <v>3986124.318079865</v>
       </c>
       <c r="I136">
-        <v>-431.2621831307741</v>
+        <v>1116036.010308541</v>
       </c>
       <c r="J136">
-        <v>408.901950240954</v>
+        <v>4841862.618358546</v>
       </c>
       <c r="K136">
-        <v>3231.317067823296</v>
+        <v>3987142.690176864</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5202,34 +5193,34 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>58.22411895862276</v>
+        <v>1116413.015370659</v>
       </c>
       <c r="G137">
-        <v>368.6778870251164</v>
+        <v>4841482.169598021</v>
       </c>
       <c r="H137">
-        <v>2735.828494209581</v>
+        <v>3986138.234872953</v>
       </c>
       <c r="I137">
-        <v>-353.8718979207369</v>
+        <v>1116094.530392964</v>
       </c>
       <c r="J137">
-        <v>377.708603583371</v>
+        <v>4841813.966754352</v>
       </c>
       <c r="K137">
-        <v>3091.414479017697</v>
+        <v>3987022.323902146</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5237,34 +5228,34 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>56.94553526506938</v>
+        <v>1116411.863524786</v>
       </c>
       <c r="G138">
-        <v>391.8010454164593</v>
+        <v>4841498.682397873</v>
       </c>
       <c r="H138">
-        <v>2756.39263929368</v>
+        <v>3986151.534595431</v>
       </c>
       <c r="I138">
-        <v>-274.5759481351595</v>
+        <v>1116154.491480628</v>
       </c>
       <c r="J138">
-        <v>346.5152569257879</v>
+        <v>4841765.315150158</v>
       </c>
       <c r="K138">
-        <v>2933.904526777663</v>
+        <v>3986886.808996067</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5272,34 +5263,34 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>55.74759884026496</v>
+        <v>1116410.784332134</v>
       </c>
       <c r="G139">
-        <v>414.924203807802</v>
+        <v>4841515.195197725</v>
       </c>
       <c r="H139">
-        <v>2776.08369563913</v>
+        <v>3986164.269653641</v>
       </c>
       <c r="I139">
-        <v>-193.3274085370479</v>
+        <v>1116215.929054912</v>
       </c>
       <c r="J139">
-        <v>315.3219102682049</v>
+        <v>4841716.663545964</v>
       </c>
       <c r="K139">
-        <v>2758.787211103196</v>
+        <v>3986736.145458629</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5307,34 +5298,34 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>54.62217751155689</v>
+        <v>1116409.77046662</v>
       </c>
       <c r="G140">
-        <v>438.0473621991449</v>
+        <v>4841531.707997577</v>
       </c>
       <c r="H140">
-        <v>2794.972790825529</v>
+        <v>3986176.486048867</v>
       </c>
       <c r="I140">
-        <v>-110.0781983986185</v>
+        <v>1116278.879472942</v>
       </c>
       <c r="J140">
-        <v>284.1285636106218</v>
+        <v>4841668.01194177</v>
       </c>
       <c r="K140">
-        <v>2566.062531994295</v>
+        <v>3986570.333289829</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5342,34 +5333,34 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>53.56224214099797</v>
+        <v>1116408.815595861</v>
       </c>
       <c r="G141">
-        <v>461.1705205904877</v>
+        <v>4841548.220797429</v>
       </c>
       <c r="H141">
-        <v>2813.122699771261</v>
+        <v>3986188.224380366</v>
       </c>
       <c r="I141">
-        <v>-24.77905304839961</v>
+        <v>1116343.379987102</v>
       </c>
       <c r="J141">
-        <v>252.9352169530386</v>
+        <v>4841619.360337576</v>
       </c>
       <c r="K141">
-        <v>2355.730489450959</v>
+        <v>3986389.372489669</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5377,34 +5368,34 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>52.56168151668392</v>
+        <v>1116407.914214409</v>
       </c>
       <c r="G142">
-        <v>484.2936789818305</v>
+        <v>4841564.733597281</v>
       </c>
       <c r="H142">
-        <v>2830.5891034443</v>
+        <v>3986199.520659428</v>
       </c>
       <c r="I142">
-        <v>62.62050528229384</v>
+        <v>1116409.468767084</v>
       </c>
       <c r="J142">
-        <v>221.7418702954556</v>
+        <v>4841570.708733382</v>
       </c>
       <c r="K142">
-        <v>2127.791083473192</v>
+        <v>3986193.263058149</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5412,34 +5403,34 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>51.61515383281871</v>
+        <v>1116407.061509958</v>
       </c>
       <c r="G143">
-        <v>507.4168373731732</v>
+        <v>4841581.246397135</v>
       </c>
       <c r="H143">
-        <v>2847.421619053273</v>
+        <v>3986210.406975649</v>
       </c>
       <c r="I143">
-        <v>152.1721973307612</v>
+        <v>1116477.184922472</v>
       </c>
       <c r="J143">
-        <v>190.5485236378725</v>
+        <v>4841522.057129188</v>
       </c>
       <c r="K143">
-        <v>1882.244314060989</v>
+        <v>3985982.004995268</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5447,34 +5438,34 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>50.71796651088601</v>
+        <v>1116406.253255075</v>
       </c>
       <c r="G144">
-        <v>530.5399957645161</v>
+        <v>4841597.759196986</v>
       </c>
       <c r="H144">
-        <v>2863.664649764772</v>
+        <v>3986220.91204648</v>
       </c>
       <c r="I144">
-        <v>243.9290174098768</v>
+        <v>1116546.56852589</v>
       </c>
       <c r="J144">
-        <v>159.3551769802895</v>
+        <v>4841473.405524994</v>
       </c>
       <c r="K144">
-        <v>1619.090181214354</v>
+        <v>3985755.598301027</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5482,34 +5473,34 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>49.86597818685891</v>
+        <v>1116405.485718902</v>
       </c>
       <c r="G145">
-        <v>553.6631541558589</v>
+        <v>4841614.271996839</v>
       </c>
       <c r="H145">
-        <v>2879.358090605613</v>
+        <v>3986231.061673758</v>
       </c>
       <c r="I145">
-        <v>337.9452647687131</v>
+        <v>1116617.66063671</v>
       </c>
       <c r="J145">
-        <v>128.1618303227064</v>
+        <v>4841424.7539208</v>
       </c>
       <c r="K145">
-        <v>1338.328684933284</v>
+        <v>3985514.042975424</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5517,34 +5508,34 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>49.05551819099277</v>
+        <v>1116404.75559462</v>
       </c>
       <c r="G146">
-        <v>576.7863125472016</v>
+        <v>4841630.784796691</v>
       </c>
       <c r="H146">
-        <v>2894.537918805138</v>
+        <v>3986240.879125517</v>
       </c>
       <c r="I146">
-        <v>434.2765757254001</v>
+        <v>1116690.503325355</v>
       </c>
       <c r="J146">
-        <v>96.96848366512323</v>
+        <v>4841376.102316607</v>
       </c>
       <c r="K146">
-        <v>1039.95982521778</v>
+        <v>3985257.339018462</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5552,34 +5543,34 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>48.2833199476342</v>
+        <v>1116404.059939448</v>
       </c>
       <c r="G147">
-        <v>599.9094709385445</v>
+        <v>4841647.297596543</v>
       </c>
       <c r="H147">
-        <v>2909.236690561019</v>
+        <v>3986250.385457256</v>
       </c>
       <c r="I147">
-        <v>532.9799565912128</v>
+        <v>1116765.139698193</v>
       </c>
       <c r="J147">
-        <v>65.77513700754025</v>
+        <v>4841327.450712413</v>
       </c>
       <c r="K147">
-        <v>723.9836020678434</v>
+        <v>3984985.486430138</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5587,34 +5578,34 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>47.54646553849956</v>
+        <v>1116403.396124701</v>
       </c>
       <c r="G148">
-        <v>623.0326293298872</v>
+        <v>4841663.810396396</v>
       </c>
       <c r="H148">
-        <v>2923.483961482592</v>
+        <v>3986259.59978387</v>
       </c>
       <c r="I148">
-        <v>634.1138174054031</v>
+        <v>1116841.613923049</v>
       </c>
       <c r="J148">
-        <v>34.58179034995712</v>
+        <v>4841278.799108219</v>
       </c>
       <c r="K148">
-        <v>390.4000154834722</v>
+        <v>3984698.485210455</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5622,34 +5613,34 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>46.84233928394394</v>
+        <v>1116402.761793977</v>
       </c>
       <c r="G149">
-        <v>646.1557877212301</v>
+        <v>4841680.323196248</v>
       </c>
       <c r="H149">
-        <v>2937.306644364559</v>
+        <v>3986268.539511025</v>
       </c>
       <c r="I149">
-        <v>737.738006500696</v>
+        <v>1116919.971255338</v>
       </c>
       <c r="J149">
-        <v>3.38844369237398</v>
+        <v>4841230.147504024</v>
       </c>
       <c r="K149">
-        <v>39.2090654646674</v>
+        <v>3984396.33535941</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5657,34 +5648,34 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>46.16858865873817</v>
+        <v>1116402.154827941</v>
       </c>
       <c r="G150">
-        <v>669.2789461125728</v>
+        <v>4841696.835996101</v>
       </c>
       <c r="H150">
-        <v>2950.729315176853</v>
+        <v>3986277.220533065</v>
       </c>
       <c r="I150">
-        <v>843.9138459199537</v>
+        <v>1117000.258064846</v>
       </c>
       <c r="J150">
-        <v>-27.80490296520901</v>
+        <v>4841181.495899831</v>
       </c>
       <c r="K150">
-        <v>-329.58924798857</v>
+        <v>3984079.036877005</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5692,34 +5683,34 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>45.52309121128965</v>
+        <v>1116401.573314525</v>
       </c>
       <c r="G151">
-        <v>692.4021045039156</v>
+        <v>4841713.348795953</v>
       </c>
       <c r="H151">
-        <v>2963.774476012386</v>
+        <v>3986285.657403068</v>
       </c>
       <c r="I151">
-        <v>952.70416770493</v>
+        <v>1117082.521863175</v>
       </c>
       <c r="J151">
-        <v>-58.99824962279214</v>
+        <v>4841132.844295637</v>
       </c>
       <c r="K151">
-        <v>-715.9949248762423</v>
+        <v>3983746.58976324</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5727,34 +5718,34 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>44.90392642633454</v>
+        <v>1116401.015523583</v>
       </c>
       <c r="G152">
-        <v>715.5252628952585</v>
+        <v>4841729.861595805</v>
       </c>
       <c r="H152">
-        <v>2976.462782059743</v>
+        <v>3986293.863479638</v>
       </c>
       <c r="I152">
-        <v>1064.173351078601</v>
+        <v>1117166.811331858</v>
       </c>
       <c r="J152">
-        <v>-90.19159628037528</v>
+        <v>4841084.192691443</v>
       </c>
       <c r="K152">
-        <v>-1120.007965198349</v>
+        <v>3983398.994018114</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5762,34 +5753,34 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>44.30935168132071</v>
+        <v>1116400.479885229</v>
       </c>
       <c r="G153">
-        <v>738.6484212866012</v>
+        <v>4841746.374395657</v>
       </c>
       <c r="H153">
-        <v>2988.813238350147</v>
+        <v>3986301.85105415</v>
       </c>
       <c r="I153">
-        <v>1178.387360543081</v>
+        <v>1117253.176351161</v>
       </c>
       <c r="J153">
-        <v>-121.3849429379584</v>
+        <v>4841035.541087249</v>
       </c>
       <c r="K153">
-        <v>-1541.628368954889</v>
+        <v>3983036.249641628</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5797,34 +5788,34 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>43.73778161087316</v>
+        <v>1116399.964971242</v>
       </c>
       <c r="G154">
-        <v>761.771579677944</v>
+        <v>4841762.88719551</v>
       </c>
       <c r="H154">
-        <v>3000.8433709838</v>
+        <v>3986309.631461492</v>
       </c>
       <c r="I154">
-        <v>1295.41378491566</v>
+        <v>1117341.668029611</v>
       </c>
       <c r="J154">
-        <v>-152.5782895955413</v>
+        <v>4840986.889483055</v>
       </c>
       <c r="K154">
-        <v>-1980.85613614586</v>
+        <v>3982658.356633781</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5832,34 +5823,34 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>43.18777032287461</v>
+        <v>1116399.469479054</v>
       </c>
       <c r="G155">
-        <v>784.8947380692869</v>
+        <v>4841779.399995361</v>
       </c>
       <c r="H155">
-        <v>3012.569376707789</v>
+        <v>3986317.215176802</v>
       </c>
       <c r="I155">
-        <v>1415.32187732608</v>
+        <v>1117432.338734232</v>
       </c>
       <c r="J155">
-        <v>-183.7716362531244</v>
+        <v>4840938.237878862</v>
       </c>
       <c r="K155">
-        <v>-2437.691266771267</v>
+        <v>3982265.314994573</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5867,34 +5858,34 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>42.65799601194322</v>
+        <v>1116398.992217881</v>
       </c>
       <c r="G156">
-        <v>808.0178964606297</v>
+        <v>4841795.912795214</v>
       </c>
       <c r="H156">
-        <v>3024.006254049165</v>
+        <v>3986324.611900276</v>
       </c>
       <c r="I156">
-        <v>1538.182596198682</v>
+        <v>1117525.242121538</v>
       </c>
       <c r="J156">
-        <v>-214.9649829107075</v>
+        <v>4840889.586274667</v>
       </c>
       <c r="K156">
-        <v>-2912.133760831108</v>
+        <v>3981857.124724004</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5902,34 +5893,34 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>42.14724759755942</v>
+        <v>1116398.532096689</v>
       </c>
       <c r="G157">
-        <v>831.1410548519724</v>
+        <v>4841812.425595067</v>
       </c>
       <c r="H157">
-        <v>3035.167918667015</v>
+        <v>3986331.830631772</v>
       </c>
       <c r="I157">
-        <v>1664.068647243734</v>
+        <v>1117620.433169288</v>
       </c>
       <c r="J157">
-        <v>-246.1583295682907</v>
+        <v>4840840.934670473</v>
       </c>
       <c r="K157">
-        <v>-3404.183618325384</v>
+        <v>3981433.785822076</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5937,34 +5928,34 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>41.65441307939476</v>
+        <v>1116398.088113703</v>
       </c>
       <c r="G158">
-        <v>854.2642132433153</v>
+        <v>4841828.938394919</v>
       </c>
       <c r="H158">
-        <v>3046.067305149027</v>
+        <v>3986338.879736648</v>
       </c>
       <c r="I158">
-        <v>1793.054526482729</v>
+        <v>1117717.968209014</v>
       </c>
       <c r="J158">
-        <v>-277.3516762258738</v>
+        <v>4840792.283066279</v>
       </c>
       <c r="K158">
-        <v>-3913.840839254091</v>
+        <v>3980995.298288786</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5972,34 +5963,34 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>41.1784693550233</v>
+        <v>1116397.659347235</v>
       </c>
       <c r="G159">
-        <v>877.3873716346581</v>
+        <v>4841845.451194772</v>
       </c>
       <c r="H159">
-        <v>3056.716457120293</v>
+        <v>3986345.767004038</v>
       </c>
       <c r="I159">
-        <v>1925.216564333147</v>
+        <v>1117817.904959362</v>
       </c>
       <c r="J159">
-        <v>-308.5450228834566</v>
+        <v>4840743.631462086</v>
       </c>
       <c r="K159">
-        <v>-4441.10542361723</v>
+        <v>3980541.662124137</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6007,34 +5998,1889 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>40.71847328784949</v>
+        <v>1116397.244947634</v>
       </c>
       <c r="G160">
-        <v>900.5105300260008</v>
+        <v>4841861.963994624</v>
       </c>
       <c r="H160">
-        <v>3067.126607238592</v>
+        <v>3986352.499698588</v>
       </c>
       <c r="I160">
-        <v>2060.632970778789</v>
+        <v>1117920.302560248</v>
       </c>
       <c r="J160">
-        <v>-339.7383695410398</v>
+        <v>4840694.979857891</v>
       </c>
       <c r="K160">
-        <v>-4985.977371414806</v>
+        <v>3980072.877328127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G161">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H161">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I161">
+        <v>1114861.889970458</v>
+      </c>
+      <c r="J161">
+        <v>4843226.818366356</v>
+      </c>
+      <c r="K161">
+        <v>3984374.371787243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G162">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H162">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I162">
+        <v>1114891.503981068</v>
+      </c>
+      <c r="J162">
+        <v>4843178.166742523</v>
+      </c>
+      <c r="K162">
+        <v>3984678.168088065</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G163">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H163">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I163">
+        <v>1114921.847209445</v>
+      </c>
+      <c r="J163">
+        <v>4843129.515118688</v>
+      </c>
+      <c r="K163">
+        <v>3984966.815712778</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G164">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H164">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I164">
+        <v>1114952.937611905</v>
+      </c>
+      <c r="J164">
+        <v>4843080.863494855</v>
+      </c>
+      <c r="K164">
+        <v>3985240.314661378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G165">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H165">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I165">
+        <v>1114984.793586923</v>
+      </c>
+      <c r="J165">
+        <v>4843032.211871022</v>
+      </c>
+      <c r="K165">
+        <v>3985498.664933868</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G166">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H166">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I166">
+        <v>1115017.433986019</v>
+      </c>
+      <c r="J166">
+        <v>4842983.560247189</v>
+      </c>
+      <c r="K166">
+        <v>3985741.866530246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G167">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H167">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I167">
+        <v>1115050.878124914</v>
+      </c>
+      <c r="J167">
+        <v>4842934.908623355</v>
+      </c>
+      <c r="K167">
+        <v>3985969.919450513</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G168">
+        <v>4841122.253103456</v>
+      </c>
+      <c r="H168">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I168">
+        <v>1115085.145794962</v>
+      </c>
+      <c r="J168">
+        <v>4842886.256999522</v>
+      </c>
+      <c r="K168">
+        <v>3986182.823694668</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.733342163</v>
+      </c>
+      <c r="G169">
+        <v>4841138.765914788</v>
+      </c>
+      <c r="H169">
+        <v>3985229.749288977</v>
+      </c>
+      <c r="I169">
+        <v>1115120.257274858</v>
+      </c>
+      <c r="J169">
+        <v>4842837.605375689</v>
+      </c>
+      <c r="K169">
+        <v>3986380.579262712</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.05272479</v>
+      </c>
+      <c r="G170">
+        <v>4841155.278726118</v>
+      </c>
+      <c r="H170">
+        <v>3985429.003766796</v>
+      </c>
+      <c r="I170">
+        <v>1115156.233342645</v>
+      </c>
+      <c r="J170">
+        <v>4842788.953751856</v>
+      </c>
+      <c r="K170">
+        <v>3986563.186154645</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.455304166</v>
+      </c>
+      <c r="G171">
+        <v>4841171.791537449</v>
+      </c>
+      <c r="H171">
+        <v>3985547.689924045</v>
+      </c>
+      <c r="I171">
+        <v>1115193.095288004</v>
+      </c>
+      <c r="J171">
+        <v>4842740.302128022</v>
+      </c>
+      <c r="K171">
+        <v>3986730.644370467</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116484.402514256</v>
+      </c>
+      <c r="G172">
+        <v>4841188.304348779</v>
+      </c>
+      <c r="H172">
+        <v>3985632.506898941</v>
+      </c>
+      <c r="I172">
+        <v>1115230.864924855</v>
+      </c>
+      <c r="J172">
+        <v>4842691.650504189</v>
+      </c>
+      <c r="K172">
+        <v>3986882.953910177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.812571853</v>
+      </c>
+      <c r="G173">
+        <v>4841204.817160109</v>
+      </c>
+      <c r="H173">
+        <v>3985698.553831851</v>
+      </c>
+      <c r="I173">
+        <v>1115269.564604266</v>
+      </c>
+      <c r="J173">
+        <v>4842642.998880356</v>
+      </c>
+      <c r="K173">
+        <v>3987020.114773776</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116462.420097795</v>
+      </c>
+      <c r="G174">
+        <v>4841221.32997144</v>
+      </c>
+      <c r="H174">
+        <v>3985752.651392972</v>
+      </c>
+      <c r="I174">
+        <v>1115309.21722768</v>
+      </c>
+      <c r="J174">
+        <v>4842594.347256523</v>
+      </c>
+      <c r="K174">
+        <v>3987142.126961264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.076494701</v>
+      </c>
+      <c r="G175">
+        <v>4841237.84278277</v>
+      </c>
+      <c r="H175">
+        <v>3985798.468078311</v>
+      </c>
+      <c r="I175">
+        <v>1115349.846260465</v>
+      </c>
+      <c r="J175">
+        <v>4842545.695632689</v>
+      </c>
+      <c r="K175">
+        <v>3987248.99047264</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.134985093</v>
+      </c>
+      <c r="G176">
+        <v>4841254.3555941</v>
+      </c>
+      <c r="H176">
+        <v>3985838.20570838</v>
+      </c>
+      <c r="I176">
+        <v>1115391.475745805</v>
+      </c>
+      <c r="J176">
+        <v>4842497.044008856</v>
+      </c>
+      <c r="K176">
+        <v>3987340.705307905</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.20141504</v>
+      </c>
+      <c r="G177">
+        <v>4841270.868405432</v>
+      </c>
+      <c r="H177">
+        <v>3985873.290103546</v>
+      </c>
+      <c r="I177">
+        <v>1115434.130318922</v>
+      </c>
+      <c r="J177">
+        <v>4842448.392385023</v>
+      </c>
+      <c r="K177">
+        <v>3987417.271467059</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.020585625</v>
+      </c>
+      <c r="G178">
+        <v>4841287.381216762</v>
+      </c>
+      <c r="H178">
+        <v>3985904.697697213</v>
+      </c>
+      <c r="I178">
+        <v>1115477.835221662</v>
+      </c>
+      <c r="J178">
+        <v>4842399.740761189</v>
+      </c>
+      <c r="K178">
+        <v>3987478.688950101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116436.419208968</v>
+      </c>
+      <c r="G179">
+        <v>4841303.894028093</v>
+      </c>
+      <c r="H179">
+        <v>3985933.126557714</v>
+      </c>
+      <c r="I179">
+        <v>1115522.616317423</v>
+      </c>
+      <c r="J179">
+        <v>4842351.089137355</v>
+      </c>
+      <c r="K179">
+        <v>3987524.957757032</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.275021056</v>
+      </c>
+      <c r="G180">
+        <v>4841320.406839423</v>
+      </c>
+      <c r="H180">
+        <v>3985959.093075715</v>
+      </c>
+      <c r="I180">
+        <v>1115568.50010647</v>
+      </c>
+      <c r="J180">
+        <v>4842302.437513522</v>
+      </c>
+      <c r="K180">
+        <v>3987556.077887853</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.499000302</v>
+      </c>
+      <c r="G181">
+        <v>4841336.919650753</v>
+      </c>
+      <c r="H181">
+        <v>3985982.99000612</v>
+      </c>
+      <c r="I181">
+        <v>1115615.513741609</v>
+      </c>
+      <c r="J181">
+        <v>4842253.785889689</v>
+      </c>
+      <c r="K181">
+        <v>3987572.049342562</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.024602742</v>
+      </c>
+      <c r="G182">
+        <v>4841353.432462084</v>
+      </c>
+      <c r="H182">
+        <v>3986005.123035839</v>
+      </c>
+      <c r="I182">
+        <v>1115663.685044263</v>
+      </c>
+      <c r="J182">
+        <v>4842205.134265856</v>
+      </c>
+      <c r="K182">
+        <v>3987572.872121159</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.800965756</v>
+      </c>
+      <c r="G183">
+        <v>4841369.945273415</v>
+      </c>
+      <c r="H183">
+        <v>3986025.7347579</v>
+      </c>
+      <c r="I183">
+        <v>1115713.042520927</v>
+      </c>
+      <c r="J183">
+        <v>4842156.482642022</v>
+      </c>
+      <c r="K183">
+        <v>3987558.546223644</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.788462135</v>
+      </c>
+      <c r="G184">
+        <v>4841386.458084744</v>
+      </c>
+      <c r="H184">
+        <v>3986045.020922784</v>
+      </c>
+      <c r="I184">
+        <v>1115763.615380046</v>
+      </c>
+      <c r="J184">
+        <v>4842107.831018189</v>
+      </c>
+      <c r="K184">
+        <v>3987529.071650019</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.955701809</v>
+      </c>
+      <c r="G185">
+        <v>4841402.970896075</v>
+      </c>
+      <c r="H185">
+        <v>3986063.141772422</v>
+      </c>
+      <c r="I185">
+        <v>1115815.433549295</v>
+      </c>
+      <c r="J185">
+        <v>4842059.179394355</v>
+      </c>
+      <c r="K185">
+        <v>3987484.448400282</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.277455837</v>
+      </c>
+      <c r="G186">
+        <v>4841419.483707406</v>
+      </c>
+      <c r="H186">
+        <v>3986080.230140893</v>
+      </c>
+      <c r="I186">
+        <v>1115868.527693289</v>
+      </c>
+      <c r="J186">
+        <v>4842010.527770521</v>
+      </c>
+      <c r="K186">
+        <v>3987424.676474434</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.733185425</v>
+      </c>
+      <c r="G187">
+        <v>4841435.996518737</v>
+      </c>
+      <c r="H187">
+        <v>3986096.397369178</v>
+      </c>
+      <c r="I187">
+        <v>1115922.929231734</v>
+      </c>
+      <c r="J187">
+        <v>4841961.876146688</v>
+      </c>
+      <c r="K187">
+        <v>3987349.755872475</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.305978254</v>
+      </c>
+      <c r="G188">
+        <v>4841452.509330067</v>
+      </c>
+      <c r="H188">
+        <v>3986111.737705726</v>
+      </c>
+      <c r="I188">
+        <v>1115978.670358015</v>
+      </c>
+      <c r="J188">
+        <v>4841913.224522855</v>
+      </c>
+      <c r="K188">
+        <v>3987259.686594405</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.981765292</v>
+      </c>
+      <c r="G189">
+        <v>4841469.022141397</v>
+      </c>
+      <c r="H189">
+        <v>3986126.331635406</v>
+      </c>
+      <c r="I189">
+        <v>1116035.784058249</v>
+      </c>
+      <c r="J189">
+        <v>4841864.572899022</v>
+      </c>
+      <c r="K189">
+        <v>3987154.468640224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.748734741</v>
+      </c>
+      <c r="G190">
+        <v>4841485.534952728</v>
+      </c>
+      <c r="H190">
+        <v>3986140.248435523</v>
+      </c>
+      <c r="I190">
+        <v>1116094.304130808</v>
+      </c>
+      <c r="J190">
+        <v>4841815.921275188</v>
+      </c>
+      <c r="K190">
+        <v>3987034.102009931</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.59688708</v>
+      </c>
+      <c r="G191">
+        <v>4841502.047764059</v>
+      </c>
+      <c r="H191">
+        <v>3986153.54816472</v>
+      </c>
+      <c r="I191">
+        <v>1116154.265206316</v>
+      </c>
+      <c r="J191">
+        <v>4841767.269651355</v>
+      </c>
+      <c r="K191">
+        <v>3986898.586703526</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.517692752</v>
+      </c>
+      <c r="G192">
+        <v>4841518.560575388</v>
+      </c>
+      <c r="H192">
+        <v>3986166.283229363</v>
+      </c>
+      <c r="I192">
+        <v>1116215.702768145</v>
+      </c>
+      <c r="J192">
+        <v>4841718.618027522</v>
+      </c>
+      <c r="K192">
+        <v>3986747.92272101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.503825665</v>
+      </c>
+      <c r="G193">
+        <v>4841535.073386719</v>
+      </c>
+      <c r="H193">
+        <v>3986178.49963076</v>
+      </c>
+      <c r="I193">
+        <v>1116278.653173413</v>
+      </c>
+      <c r="J193">
+        <v>4841669.966403688</v>
+      </c>
+      <c r="K193">
+        <v>3986582.110062383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.548953423</v>
+      </c>
+      <c r="G194">
+        <v>4841551.58619805</v>
+      </c>
+      <c r="H194">
+        <v>3986190.237968188</v>
+      </c>
+      <c r="I194">
+        <v>1116343.153674498</v>
+      </c>
+      <c r="J194">
+        <v>4841621.314779854</v>
+      </c>
+      <c r="K194">
+        <v>3986401.148727645</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.647570572</v>
+      </c>
+      <c r="G195">
+        <v>4841568.099009381</v>
+      </c>
+      <c r="H195">
+        <v>3986201.534252957</v>
+      </c>
+      <c r="I195">
+        <v>1116409.242441081</v>
+      </c>
+      <c r="J195">
+        <v>4841572.663156021</v>
+      </c>
+      <c r="K195">
+        <v>3986205.038716796</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.794864797</v>
+      </c>
+      <c r="G196">
+        <v>4841584.611820711</v>
+      </c>
+      <c r="H196">
+        <v>3986212.420574677</v>
+      </c>
+      <c r="I196">
+        <v>1116476.958582742</v>
+      </c>
+      <c r="J196">
+        <v>4841524.011532188</v>
+      </c>
+      <c r="K196">
+        <v>3985993.780029835</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.986608659</v>
+      </c>
+      <c r="G197">
+        <v>4841601.124632041</v>
+      </c>
+      <c r="H197">
+        <v>3986222.925650814</v>
+      </c>
+      <c r="I197">
+        <v>1116546.342172094</v>
+      </c>
+      <c r="J197">
+        <v>4841475.359908355</v>
+      </c>
+      <c r="K197">
+        <v>3985767.372666763</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.219071294</v>
+      </c>
+      <c r="G198">
+        <v>4841617.637443372</v>
+      </c>
+      <c r="H198">
+        <v>3986233.075283219</v>
+      </c>
+      <c r="I198">
+        <v>1116617.434268501</v>
+      </c>
+      <c r="J198">
+        <v>4841426.708284521</v>
+      </c>
+      <c r="K198">
+        <v>3985525.816627579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.488945879</v>
+      </c>
+      <c r="G199">
+        <v>4841634.150254703</v>
+      </c>
+      <c r="H199">
+        <v>3986242.892739937</v>
+      </c>
+      <c r="I199">
+        <v>1116690.276942379</v>
+      </c>
+      <c r="J199">
+        <v>4841378.056660688</v>
+      </c>
+      <c r="K199">
+        <v>3985269.111912285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.793289626</v>
+      </c>
+      <c r="G200">
+        <v>4841650.663066033</v>
+      </c>
+      <c r="H200">
+        <v>3986252.399076479</v>
+      </c>
+      <c r="I200">
+        <v>1116764.913300087</v>
+      </c>
+      <c r="J200">
+        <v>4841329.405036855</v>
+      </c>
+      <c r="K200">
+        <v>3984997.258520878</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.129473849</v>
+      </c>
+      <c r="G201">
+        <v>4841667.175877363</v>
+      </c>
+      <c r="H201">
+        <v>3986261.613407747</v>
+      </c>
+      <c r="I201">
+        <v>1116841.38750944</v>
+      </c>
+      <c r="J201">
+        <v>4841280.753413022</v>
+      </c>
+      <c r="K201">
+        <v>3984710.256453361</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.49514214</v>
+      </c>
+      <c r="G202">
+        <v>4841683.688688694</v>
+      </c>
+      <c r="H202">
+        <v>3986270.553139418</v>
+      </c>
+      <c r="I202">
+        <v>1116919.744825843</v>
+      </c>
+      <c r="J202">
+        <v>4841232.101789188</v>
+      </c>
+      <c r="K202">
+        <v>3984408.105709733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>21</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.888175161</v>
+      </c>
+      <c r="G203">
+        <v>4841700.201500025</v>
+      </c>
+      <c r="H203">
+        <v>3986279.234165843</v>
+      </c>
+      <c r="I203">
+        <v>1117000.031619075</v>
+      </c>
+      <c r="J203">
+        <v>4841183.450165355</v>
+      </c>
+      <c r="K203">
+        <v>3984090.806289992</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.306660843</v>
+      </c>
+      <c r="G204">
+        <v>4841716.714311356</v>
+      </c>
+      <c r="H204">
+        <v>3986287.671040108</v>
+      </c>
+      <c r="I204">
+        <v>1117082.295400727</v>
+      </c>
+      <c r="J204">
+        <v>4841134.798541522</v>
+      </c>
+      <c r="K204">
+        <v>3983758.358194142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>21</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.748869035</v>
+      </c>
+      <c r="G205">
+        <v>4841733.227122685</v>
+      </c>
+      <c r="H205">
+        <v>3986295.877120823</v>
+      </c>
+      <c r="I205">
+        <v>1117166.584852322</v>
+      </c>
+      <c r="J205">
+        <v>4841086.146917688</v>
+      </c>
+      <c r="K205">
+        <v>3983410.761422179</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.213229849</v>
+      </c>
+      <c r="G206">
+        <v>4841749.739934016</v>
+      </c>
+      <c r="H206">
+        <v>3986303.86469937</v>
+      </c>
+      <c r="I206">
+        <v>1117252.949854117</v>
+      </c>
+      <c r="J206">
+        <v>4841037.495293855</v>
+      </c>
+      <c r="K206">
+        <v>3983048.015974105</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>21</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.698315063</v>
+      </c>
+      <c r="G207">
+        <v>4841766.252745347</v>
+      </c>
+      <c r="H207">
+        <v>3986311.645110643</v>
+      </c>
+      <c r="I207">
+        <v>1117341.441514627</v>
+      </c>
+      <c r="J207">
+        <v>4840988.843670021</v>
+      </c>
+      <c r="K207">
+        <v>3982670.12184992</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>21</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.202822105</v>
+      </c>
+      <c r="G208">
+        <v>4841782.765556677</v>
+      </c>
+      <c r="H208">
+        <v>3986319.228829783</v>
+      </c>
+      <c r="I208">
+        <v>1117432.112200866</v>
+      </c>
+      <c r="J208">
+        <v>4840940.192046188</v>
+      </c>
+      <c r="K208">
+        <v>3982277.079049624</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>21</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.725560191</v>
+      </c>
+      <c r="G209">
+        <v>4841799.278368007</v>
+      </c>
+      <c r="H209">
+        <v>3986326.625556993</v>
+      </c>
+      <c r="I209">
+        <v>1117525.015569339</v>
+      </c>
+      <c r="J209">
+        <v>4840891.540422354</v>
+      </c>
+      <c r="K209">
+        <v>3981868.887573216</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.265438284</v>
+      </c>
+      <c r="G210">
+        <v>4841815.791179338</v>
+      </c>
+      <c r="H210">
+        <v>3986333.844292135</v>
+      </c>
+      <c r="I210">
+        <v>1117620.206597791</v>
+      </c>
+      <c r="J210">
+        <v>4840842.888798521</v>
+      </c>
+      <c r="K210">
+        <v>3981445.547420697</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>21</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.821454609</v>
+      </c>
+      <c r="G211">
+        <v>4841832.303990669</v>
+      </c>
+      <c r="H211">
+        <v>3986340.893400573</v>
+      </c>
+      <c r="I211">
+        <v>1117717.741617743</v>
+      </c>
+      <c r="J211">
+        <v>4840794.237174688</v>
+      </c>
+      <c r="K211">
+        <v>3981007.058592067</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>21</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116399.392687475</v>
+      </c>
+      <c r="G212">
+        <v>4841848.816802</v>
+      </c>
+      <c r="H212">
+        <v>3986347.780671442</v>
+      </c>
+      <c r="I212">
+        <v>1117817.678347832</v>
+      </c>
+      <c r="J212">
+        <v>4840745.585550855</v>
+      </c>
+      <c r="K212">
+        <v>3980553.421087325</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>21</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.978287231</v>
+      </c>
+      <c r="G213">
+        <v>4841865.32961333</v>
+      </c>
+      <c r="H213">
+        <v>3986354.513369393</v>
+      </c>
+      <c r="I213">
+        <v>1117920.07592796</v>
+      </c>
+      <c r="J213">
+        <v>4840696.933927021</v>
+      </c>
+      <c r="K213">
+        <v>3980084.634906472</v>
       </c>
     </row>
   </sheetData>
